--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="244">
   <si>
     <t/>
   </si>
@@ -328,10 +328,6 @@
   </si>
   <si>
     <t>唯一，不可更改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySql DDL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1414,10 +1410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1494,14 +1486,22 @@
   </si>
   <si>
     <t>sys_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,7 +1610,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,8 +1641,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1800,15 +1806,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1883,6 +1880,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1893,7 +1908,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,9 +1966,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1964,51 +1976,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,14 +2026,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2074,11 +2080,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2105,7 +2138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2147,7 +2180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2179,27 +2212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2231,24 +2246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2424,23 +2421,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2452,29 +2449,29 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2483,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2518,25 +2515,25 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2548,58 +2545,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>3</v>
@@ -2627,11 +2628,12 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_dict (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2648,161 +2650,189 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J16" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>204</v>
+      <c r="B5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="12">
         <v>128</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="I5" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
+      <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>202</v>
+      <c r="B6" s="37" t="s">
+        <v>201</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="6">
         <v>128</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="J6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
+      <c r="A7" s="35">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>173</v>
+      <c r="B7" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="6">
         <v>32</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="J7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>type varchar(32) NOT NULL COMMENT '类型',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="A8" s="35">
         <v>5</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>203</v>
+      <c r="B8" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6">
         <v>128</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="J8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>description varchar(128) COMMENT '描述',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
+      <c r="A9" s="35">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>130</v>
+      <c r="B9" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="6">
         <v>8</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="J9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
+      <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>128</v>
+      <c r="B10" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="6">
         <v>32</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="J10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>parent_id varchar(32) COMMENT '父级编号',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
+      <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2813,19 +2843,23 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="6">
         <v>32</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="J11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2836,17 +2870,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="J12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2857,19 +2895,23 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="6">
         <v>32</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="J13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="35">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2880,17 +2922,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="J14" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="A15" s="35">
         <v>12</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2901,30 +2947,34 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="6">
         <v>256</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="J15" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(256) COMMENT '备注信息',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
+      <c r="A16" s="35">
         <v>13</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>87</v>
+      <c r="F16" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
@@ -2933,79 +2983,622 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="J19" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J20" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="58" t="s">
+      <c r="C22" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" t="str">
+        <f>F22</f>
+        <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1">
+      <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="59" t="s">
+      <c r="B23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" t="str">
+        <f>F23</f>
+        <v>CREATE INDEX sys_dict_label ON sys_dict (label ASC);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
+  <mergeCells count="8">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F21:I21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_log (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="1">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J13" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
+      <c r="A6" s="35">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="6">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
+      <c r="A7" s="35">
+        <v>4</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date timestamp DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="6">
+        <v>128</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
+      <c r="A9" s="35">
+        <v>6</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="6">
+        <v>128</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>user_agent varchar(128) COMMENT '用户代理',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
+      <c r="A10" s="35">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="6">
+        <v>256</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>request_uri varchar(256) COMMENT '请求URI',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
+      <c r="A11" s="35">
+        <v>8</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>method varchar(8) COMMENT '操作方式',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>params text() COMMENT '操作提交的数据',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="35">
+        <v>10</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>exception text() COMMENT '异常信息',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="J16" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J17" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" t="str">
+        <f>F19</f>
+        <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" t="str">
+        <f>F20</f>
+        <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3014,419 +3607,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="1">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
-        <v>3</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="6">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
-        <v>4</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
-        <v>5</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="6">
-        <v>128</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
-        <v>6</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="6">
-        <v>128</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>7</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="6">
-        <v>256</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>8</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="6">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
-        <v>9</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <v>10</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5546875" customWidth="1"/>
+    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -3443,12 +3642,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>123</v>
+      <c r="B2" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
@@ -3459,12 +3658,12 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>105</v>
+      <c r="B3" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>25</v>
@@ -3475,12 +3674,12 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>218</v>
+      <c r="B4" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -3491,12 +3690,12 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>163</v>
+      <c r="B5" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -3507,12 +3706,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>166</v>
+      <c r="B6" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
@@ -3523,12 +3722,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>169</v>
+      <c r="B7" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -3539,12 +3738,12 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>196</v>
+      <c r="B8" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
@@ -3555,12 +3754,12 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>219</v>
+      <c r="B9" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -3571,12 +3770,12 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>220</v>
+      <c r="B10" s="39" t="s">
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
@@ -3584,12 +3783,12 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>221</v>
+      <c r="B11" s="39" t="s">
+        <v>219</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -3600,69 +3799,57 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
@@ -3686,58 +3873,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="47.125" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3751,7 +3942,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>38</v>
@@ -3765,11 +3956,13 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_user (</v>
+      </c>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3786,17 +3979,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="13">
         <v>32</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J13" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3811,15 +4009,20 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="13">
         <v>32</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>company_id varchar(32) COMMENT '归属公司',</v>
+      </c>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3834,7 +4037,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="13">
         <v>32</v>
@@ -3843,8 +4046,12 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>office_id varchar(32) COMMENT '归属部门',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3859,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="13">
         <v>32</v>
@@ -3868,8 +4075,12 @@
       <c r="I7" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3884,15 +4095,19 @@
         <v>8</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="13">
         <v>64</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>password varchar(64) NOT NULL COMMENT '密码',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3907,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="13">
         <v>32</v>
@@ -3916,8 +4131,12 @@
       <c r="I9" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>no varchar(32) COMMENT '工号',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3932,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="13">
         <v>32</v>
@@ -3941,8 +4160,12 @@
       <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(32) COMMENT '姓名',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -3957,7 +4180,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="13">
         <v>64</v>
@@ -3966,8 +4189,12 @@
       <c r="I11" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -3982,15 +4209,19 @@
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="13">
         <v>64</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>phone varchar(64) COMMENT '固定电话',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4005,15 +4236,19 @@
         <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="13">
         <v>24</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4028,7 +4263,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="13">
         <v>1</v>
@@ -4037,10 +4272,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="J14" s="61" t="str">
+        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"timestamp",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4048,24 +4287,28 @@
         <v>71</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="13">
         <v>256</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="61" t="str">
+        <f t="shared" ref="J15:J24" si="1">B15&amp;" "&amp;IF(F15&lt;&gt;"timestamp",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <v>photo varchar(256) COMMENT '用户头像URL',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4080,15 +4323,19 @@
         <v>2</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="13">
         <v>24</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4103,13 +4350,17 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>login_date timestamp DEFAULT CURRENT_TIMESTAMP COMMENT '最后登陆时间',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -4124,15 +4375,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="13">
         <v>32</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>login_flag varchar(32) COMMENT '是否可登录',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -4147,15 +4402,19 @@
         <v>26</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="13">
         <v>32</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -4167,16 +4426,20 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -4191,15 +4454,19 @@
         <v>26</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="13">
         <v>32</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -4211,16 +4478,20 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -4235,15 +4506,19 @@
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="13">
         <v>32</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>remarks varchar(32) COMMENT '备注信息',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -4251,14 +4526,14 @@
         <v>78</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="13">
         <v>1</v>
@@ -4266,105 +4541,145 @@
       <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="I24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="J25" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="J26" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="J27" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J28" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>1</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>2</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>3</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="F30" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" t="str">
+        <f>F30</f>
+        <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A31" s="13">
+        <v>2</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" t="str">
+        <f t="shared" ref="J31:J32" si="2">F31</f>
+        <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="13">
+        <v>3</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
   </mergeCells>
@@ -4378,58 +4693,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="51.77734375" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="51.75" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -4443,7 +4762,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>38</v>
@@ -4457,11 +4776,12 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_role (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4478,17 +4798,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="13">
         <v>32</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J23" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4496,22 +4820,26 @@
         <v>62</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="13">
         <v>32</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>office_id varchar(32) COMMENT '归属机构',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4519,14 +4847,14 @@
         <v>66</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="13">
         <v>64</v>
@@ -4535,94 +4863,110 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(64) COMMENT '角色名称',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="13">
         <v>128</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>enname varchar(128) COMMENT '英文名称',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="13">
         <v>64</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>role_type varchar(64) COMMENT '角色类型',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>data_scope char(1) COMMENT '数据范围',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
@@ -4631,25 +4975,29 @@
         <v>0</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="J10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
@@ -4658,10 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="J11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4676,15 +5028,19 @@
         <v>26</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="13">
         <v>32</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4699,13 +5055,17 @@
         <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4720,15 +5080,19 @@
         <v>26</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="13">
         <v>32</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4743,13 +5107,17 @@
         <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="19"/>
+      <c r="J15" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4764,15 +5132,19 @@
         <v>2</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="13">
         <v>256</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(256) COMMENT '备注信息',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4787,597 +5159,93 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F20:I20"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="13">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="I17" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="13">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1024</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="13">
-        <v>128</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="13">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="1">
-        <v>256</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="1">
-        <v>128</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="1">
-        <v>128</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="13">
-        <v>32</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="13">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="1">
-        <v>256</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag timestamp DEFAULT CURRENT_TIMESTAMP COMMENT '删除标记',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="J18" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="J19" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="J20" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J21" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="13">
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
+      <c r="F23" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" t="str">
+        <f>F23</f>
+        <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
@@ -5391,59 +5259,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="51.88671875" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5457,7 +5329,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>38</v>
@@ -5471,19 +5343,20 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_menu (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -5491,75 +5364,756 @@
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="13">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J19" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="13">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>parent_id varchar(32) COMMENT '父级编号',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1024</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="13">
+        <v>128</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(128) NOT NULL COMMENT '名称',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="13">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1">
+        <v>256</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>href varchar(256) NOT NULL COMMENT '链接',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>target varchar(20) COMMENT '目标',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1">
+        <v>128</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>icon varchar(128) COMMENT '图标',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H12" s="1"/>
+      <c r="I12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>permission varchar(128) COMMENT '权限标识',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="13">
         <v>32</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="13">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1">
+        <v>256</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(256) COMMENT '备注信息',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="J20" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="J21" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="J22" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J23" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="C25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" t="str">
+        <f>F25</f>
+        <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F24:I24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_user_role (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="1">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
+        <v>PRIMARY KEY (user_id,role_id)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="J8" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J9" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5568,58 +6122,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5633,7 +6190,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>38</v>
@@ -5647,19 +6204,20 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_role_menu (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -5668,25 +6226,29 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -5695,47 +6257,79 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="J6" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
+        <v>PRIMARY KEY (role_id,menu_id)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="J7" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="J8" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J9" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F10" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="J11" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5744,58 +6338,62 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.875" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5809,7 +6407,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>3</v>
@@ -5823,11 +6421,12 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_office (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5844,55 +6443,63 @@
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="13">
         <v>32</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J24" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="13">
         <v>32</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>parent_id varchar(32) COMMENT '父级编号',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="13">
         <v>1024</v>
@@ -5901,8 +6508,12 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5910,37 +6521,41 @@
         <v>66</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="13">
         <v>128</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(128) NOT NULL COMMENT '名称',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="13">
         <v>8</v>
@@ -5949,48 +6564,56 @@
         <v>0</v>
       </c>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="13">
         <v>32</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="J9" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="13">
         <v>32</v>
@@ -5999,127 +6622,151 @@
       <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>code varchar(32) COMMENT '区域编码',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="13">
         <v>64</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>type char(64) NOT NULL COMMENT '机构类型',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="J12" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>grade char(1) COMMENT '机构等级',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="13">
         <v>256</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>address varchar(256) COMMENT '联系地址',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="13">
         <v>8</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="13">
         <v>256</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="19"/>
+      <c r="J15" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>master varchar(256) COMMENT '负责人',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -6127,45 +6774,53 @@
         <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="13">
         <v>24</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>phone varchar(24) COMMENT '电话',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="13">
         <v>24</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>fax varchar(24) COMMENT '传真',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -6180,15 +6835,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="13">
         <v>64</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>email varchar(64) COMMENT '邮箱',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -6203,15 +6862,19 @@
         <v>26</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="13">
         <v>32</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -6226,192 +6889,242 @@
         <v>11</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="13">
         <v>32</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="27"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="31"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="13">
         <v>256</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="31"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(256) COMMENT '备注信息',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="47">
+      <c r="F24" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="31">
         <v>1</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="31">
         <v>0</v>
       </c>
-      <c r="I24" s="50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="I24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B11&amp;")"</f>
+        <v>PRIMARY KEY (type)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="J26" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="J27" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J28" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>1</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" t="str">
+        <f>F30</f>
+        <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A31" s="13">
+        <v>2</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>2</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" t="str">
+        <f>F31</f>
+        <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F30:I30"/>
+  <mergeCells count="8">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6420,58 +7133,62 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6485,7 +7202,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>3</v>
@@ -6499,19 +7216,20 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_role_office (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -6520,25 +7238,29 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J4" s="61" t="str">
+        <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -6547,47 +7269,93 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
+        <v>PRIMARY KEY (role_id,office_id)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="J8" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="J9" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F10" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="242">
   <si>
     <t/>
   </si>
@@ -384,9 +384,6 @@
   <si>
     <t>http://testimg.com/image/201701/img201701.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
   </si>
   <si>
     <r>
@@ -1370,14 +1367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE INDEX sys_dict_label ON sys_dict (label ASC);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1495,6 +1484,9 @@
   <si>
     <t>sys_circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -2029,8 +2021,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2088,30 +2104,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,26 +2442,26 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -2549,7 +2541,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2567,38 +2559,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -2628,7 +2620,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_dict (</v>
       </c>
@@ -2650,17 +2642,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J16" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>156</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
@@ -2669,27 +2661,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="12">
         <v>128</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
@@ -2698,25 +2690,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="6">
         <v>128</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="40" t="str">
+        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
@@ -2725,25 +2717,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="6">
         <v>32</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="40" t="str">
+        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
@@ -2752,25 +2744,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="6">
         <v>128</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="40" t="str">
+        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
@@ -2779,25 +2771,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="6">
         <v>8</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" s="40" t="str">
+        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
@@ -2806,25 +2798,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="6">
         <v>32</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" s="40" t="str">
+        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
@@ -2843,15 +2835,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="6">
         <v>32</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" s="40" t="str">
+        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
@@ -2870,14 +2862,14 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      <c r="J12" s="40" t="str">
+        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
@@ -2895,15 +2887,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="6">
         <v>32</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="40" t="str">
+        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
@@ -2922,14 +2914,14 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      <c r="J14" s="40" t="str">
+        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
@@ -2947,15 +2939,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="6">
         <v>256</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" s="40" t="str">
+        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
@@ -2983,38 +2975,38 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J16" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="J16" s="40" t="str">
+        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="62"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="62"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
@@ -3037,42 +3029,42 @@
         <v>27</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="6">
         <v>1</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="F22" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" t="str">
         <f>F22</f>
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
@@ -3083,19 +3075,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_dict_label ON sys_dict (label ASC);</v>
@@ -3123,7 +3115,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3141,38 +3133,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -3202,7 +3194,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_log (</v>
       </c>
@@ -3224,17 +3216,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J13" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>156</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
@@ -3243,17 +3235,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
@@ -3262,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
@@ -3284,15 +3276,15 @@
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="6">
         <v>32</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="40" t="str">
+        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
@@ -3311,14 +3303,14 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date timestamp DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      <c r="J7" s="40" t="str">
+        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
@@ -3326,25 +3318,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="6">
         <v>128</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="40" t="str">
+        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
@@ -3353,25 +3345,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="6">
         <v>128</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" s="40" t="str">
+        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
@@ -3380,25 +3372,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="6">
         <v>256</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" s="40" t="str">
+        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
@@ -3407,25 +3399,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="6">
         <v>8</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" s="40" t="str">
+        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
@@ -3434,23 +3426,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" s="40" t="str">
+        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
@@ -3459,51 +3451,51 @@
         <v>10</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="38" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="40" t="str">
+        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="62"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="62"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
@@ -3526,42 +3518,42 @@
         <v>27</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="6">
         <v>1</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="F19" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" t="str">
         <f>F19</f>
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
@@ -3572,19 +3564,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="F20" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" t="str">
         <f>F20</f>
         <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
@@ -3647,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
@@ -3663,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>25</v>
@@ -3679,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -3695,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -3711,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
@@ -3727,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -3743,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
@@ -3759,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -3775,7 +3767,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
@@ -3788,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -3876,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3895,38 +3887,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="18" t="s">
@@ -3956,11 +3948,11 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_user (</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="13">
@@ -3986,13 +3978,13 @@
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J13" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>120</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="13">
@@ -4016,11 +4008,11 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>company_id varchar(32) COMMENT '归属公司',</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="13">
@@ -4046,8 +4038,8 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="40" t="str">
+        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
     </row>
@@ -4075,8 +4067,8 @@
       <c r="I7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="40" t="str">
+        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
     </row>
@@ -4102,8 +4094,8 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="40" t="str">
+        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
     </row>
@@ -4131,8 +4123,8 @@
       <c r="I9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" s="40" t="str">
+        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
     </row>
@@ -4160,8 +4152,8 @@
       <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" s="40" t="str">
+        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
     </row>
@@ -4189,8 +4181,8 @@
       <c r="I11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" s="40" t="str">
+        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
     </row>
@@ -4216,8 +4208,8 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" s="40" t="str">
+        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
     </row>
@@ -4243,8 +4235,8 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="40" t="str">
+        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
     </row>
@@ -4274,8 +4266,8 @@
       <c r="I14" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="61" t="str">
-        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"timestamp",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+      <c r="J14" s="40" t="str">
+        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
     </row>
@@ -4303,8 +4295,8 @@
       <c r="I15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="61" t="str">
-        <f t="shared" ref="J15:J24" si="1">B15&amp;" "&amp;IF(F15&lt;&gt;"timestamp",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+      <c r="J15" s="40" t="str">
+        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
     </row>
@@ -4330,8 +4322,8 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="J16" s="40" t="str">
+        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
     </row>
@@ -4350,14 +4342,14 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>login_date timestamp DEFAULT CURRENT_TIMESTAMP COMMENT '最后登陆时间',</v>
+      <c r="J17" s="40" t="str">
+        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
@@ -4382,8 +4374,8 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="J18" s="40" t="str">
+        <f>B18&amp;" "&amp;IF(F18&lt;&gt;"datetime",F18&amp;"("&amp;G18&amp;")",F18)&amp;IF(E18="N"," NOT NULL","")&amp;IF(H18&lt;&gt;""," DEFAULT "&amp;H18,IF(F18&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C18&amp;"',"</f>
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
     </row>
@@ -4409,8 +4401,8 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="J19" s="40" t="str">
+        <f>B19&amp;" "&amp;IF(F19&lt;&gt;"datetime",F19&amp;"("&amp;G19&amp;")",F19)&amp;IF(E19="N"," NOT NULL","")&amp;IF(H19&lt;&gt;""," DEFAULT "&amp;H19,IF(F19&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C19&amp;"',"</f>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
@@ -4426,17 +4418,17 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      <c r="J20" s="40" t="str">
+        <f>B20&amp;" "&amp;IF(F20&lt;&gt;"datetime",F20&amp;"("&amp;G20&amp;")",F20)&amp;IF(E20="N"," NOT NULL","")&amp;IF(H20&lt;&gt;""," DEFAULT "&amp;H20,IF(F20&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C20&amp;"',"</f>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
@@ -4461,8 +4453,8 @@
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="J21" s="40" t="str">
+        <f>B21&amp;" "&amp;IF(F21&lt;&gt;"datetime",F21&amp;"("&amp;G21&amp;")",F21)&amp;IF(E21="N"," NOT NULL","")&amp;IF(H21&lt;&gt;""," DEFAULT "&amp;H21,IF(F21&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C21&amp;"',"</f>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
@@ -4478,17 +4470,17 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      <c r="J22" s="40" t="str">
+        <f>B22&amp;" "&amp;IF(F22&lt;&gt;"datetime",F22&amp;"("&amp;G22&amp;")",F22)&amp;IF(E22="N"," NOT NULL","")&amp;IF(H22&lt;&gt;""," DEFAULT "&amp;H22,IF(F22&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C22&amp;"',"</f>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
@@ -4513,8 +4505,8 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="J23" s="40" t="str">
+        <f>B23&amp;" "&amp;IF(F23&lt;&gt;"datetime",F23&amp;"("&amp;G23&amp;")",F23)&amp;IF(E23="N"," NOT NULL","")&amp;IF(H23&lt;&gt;""," DEFAULT "&amp;H23,IF(F23&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C23&amp;"',"</f>
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
     </row>
@@ -4526,7 +4518,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
@@ -4542,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="61" t="str">
-        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="J24" s="40" t="str">
+        <f>B24&amp;" "&amp;IF(F24&lt;&gt;"datetime",F24&amp;"("&amp;G24&amp;")",F24)&amp;IF(E24="N"," NOT NULL","")&amp;IF(H24&lt;&gt;""," DEFAULT "&amp;H24,IF(F24&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C24&amp;"',"</f>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
@@ -4578,44 +4570,44 @@
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="13">
         <v>1</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="F30" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
@@ -4626,23 +4618,23 @@
         <v>2</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
+      <c r="F31" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:J32" si="2">F31</f>
+        <f t="shared" ref="J31:J32" si="0">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
       </c>
     </row>
@@ -4651,37 +4643,37 @@
         <v>3</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
+      <c r="F32" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4697,7 +4689,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4715,38 +4707,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -4776,7 +4768,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_role (</v>
       </c>
@@ -4805,10 +4797,10 @@
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J23" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>120</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
@@ -4820,7 +4812,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
@@ -4834,8 +4826,8 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
     </row>
@@ -4847,7 +4839,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
@@ -4863,8 +4855,8 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="40" t="str">
+        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
     </row>
@@ -4873,10 +4865,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
@@ -4890,8 +4882,8 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="40" t="str">
+        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
     </row>
@@ -4900,10 +4892,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
@@ -4917,8 +4909,8 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="40" t="str">
+        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
     </row>
@@ -4927,27 +4919,27 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="J9" s="40" t="str">
+        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
     </row>
@@ -4956,17 +4948,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
@@ -4975,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="J10" s="40" t="str">
+        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
     </row>
@@ -4987,17 +4979,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
@@ -5006,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="J11" s="40" t="str">
+        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
     </row>
@@ -5035,8 +5027,8 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" s="40" t="str">
+        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
@@ -5055,14 +5047,14 @@
         <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      <c r="J13" s="40" t="str">
+        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15">
@@ -5087,8 +5079,8 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" s="40" t="str">
+        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
@@ -5107,14 +5099,14 @@
         <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      <c r="J15" s="40" t="str">
+        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
@@ -5139,8 +5131,8 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J16" s="40" t="str">
+        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
@@ -5159,16 +5151,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>del_flag timestamp DEFAULT CURRENT_TIMESTAMP COMMENT '删除标记',</v>
+        <v>119</v>
+      </c>
+      <c r="J17" s="40" t="str">
+        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
@@ -5200,44 +5192,44 @@
         <v>27</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="13">
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
+      <c r="F23" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
@@ -5264,7 +5256,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5282,38 +5274,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -5343,7 +5335,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_menu (</v>
       </c>
@@ -5372,10 +5364,10 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J19" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>120</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
@@ -5384,14 +5376,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>85</v>
@@ -5401,8 +5393,8 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
@@ -5411,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -5428,8 +5420,8 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="40" t="str">
+        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
@@ -5441,7 +5433,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -5457,8 +5449,8 @@
       <c r="I7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="40" t="str">
+        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
@@ -5467,17 +5459,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="13">
         <v>8</v>
@@ -5486,8 +5478,8 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="40" t="str">
+        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
@@ -5496,10 +5488,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -5513,8 +5505,8 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" s="40" t="str">
+        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
     </row>
@@ -5523,10 +5515,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -5540,10 +5532,10 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="J10" s="40" t="str">
+        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
         <v>target varchar(20) COMMENT '目标',</v>
       </c>
     </row>
@@ -5552,10 +5544,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -5569,8 +5561,8 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" s="40" t="str">
+        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>icon varchar(128) COMMENT '图标',</v>
       </c>
     </row>
@@ -5579,27 +5571,27 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="J12" s="40" t="str">
+        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
         <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
       </c>
     </row>
@@ -5608,10 +5600,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -5627,8 +5619,8 @@
       <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="40" t="str">
+        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
         <v>permission varchar(128) COMMENT '权限标识',</v>
       </c>
     </row>
@@ -5656,8 +5648,8 @@
       <c r="I14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" s="40" t="str">
+        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
@@ -5676,16 +5668,16 @@
         <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      <c r="J15" s="40" t="str">
+        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
@@ -5712,8 +5704,8 @@
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J16" s="40" t="str">
+        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
@@ -5732,16 +5724,16 @@
         <v>26</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      <c r="J17" s="40" t="str">
+        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
@@ -5768,8 +5760,8 @@
       <c r="I18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J18" s="40" t="str">
+        <f>B18&amp;" "&amp;IF(F18&lt;&gt;"datetime",F18&amp;"("&amp;G18&amp;")",F18)&amp;IF(E18="N"," NOT NULL","")&amp;IF(H18&lt;&gt;""," DEFAULT "&amp;H18,IF(F18&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C18&amp;"',"</f>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
@@ -5785,10 +5777,10 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -5797,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J19" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="J19" s="40" t="str">
+        <f>B19&amp;" "&amp;IF(F19&lt;&gt;"datetime",F19&amp;"("&amp;G19&amp;")",F19)&amp;IF(E19="N"," NOT NULL","")&amp;IF(H19&lt;&gt;""," DEFAULT "&amp;H19,IF(F19&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C19&amp;"',"</f>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
@@ -5833,44 +5825,44 @@
         <v>27</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="13">
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
+      <c r="F25" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
       <c r="J25" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
@@ -5897,7 +5889,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5913,38 +5905,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -5974,7 +5966,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_user_role (</v>
       </c>
@@ -5984,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -5996,17 +5988,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>155</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
     </row>
@@ -6015,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -6027,45 +6019,45 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="65"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="65"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
@@ -6088,32 +6080,32 @@
         <v>27</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6126,7 +6118,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6143,38 +6135,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -6204,7 +6196,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
@@ -6214,10 +6206,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -6226,17 +6218,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>156</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
@@ -6245,10 +6237,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -6257,17 +6249,17 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
@@ -6300,23 +6292,23 @@
         <v>27</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="15">
@@ -6324,12 +6316,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6342,7 +6334,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J31"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6360,38 +6352,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -6421,7 +6413,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_office (</v>
       </c>
@@ -6450,10 +6442,10 @@
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J24" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>120</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
@@ -6462,10 +6454,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
@@ -6479,8 +6471,8 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
@@ -6489,10 +6481,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
@@ -6508,8 +6500,8 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="40" t="str">
+        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
@@ -6521,7 +6513,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
@@ -6535,8 +6527,8 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="40" t="str">
+        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
@@ -6545,17 +6537,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="13">
         <v>8</v>
@@ -6564,8 +6556,8 @@
         <v>0</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="40" t="str">
+        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
@@ -6574,10 +6566,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
@@ -6591,10 +6583,10 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="J9" s="40" t="str">
+        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
     </row>
@@ -6603,10 +6595,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
@@ -6622,8 +6614,8 @@
       <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" s="40" t="str">
+        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
     </row>
@@ -6632,10 +6624,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
@@ -6649,10 +6641,10 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="J11" s="40" t="str">
+        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
     </row>
@@ -6661,10 +6653,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="13" t="s">
@@ -6678,10 +6670,10 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="J12" s="40" t="str">
+        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
     </row>
@@ -6690,10 +6682,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
@@ -6707,8 +6699,8 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="40" t="str">
+        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
     </row>
@@ -6717,10 +6709,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
@@ -6734,8 +6726,8 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" s="40" t="str">
+        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
     </row>
@@ -6744,10 +6736,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
@@ -6761,8 +6753,8 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" s="40" t="str">
+        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
     </row>
@@ -6774,7 +6766,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
@@ -6788,8 +6780,8 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J16" s="40" t="str">
+        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
     </row>
@@ -6798,10 +6790,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
@@ -6815,8 +6807,8 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J17" s="40" t="str">
+        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
     </row>
@@ -6842,8 +6834,8 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J18" s="40" t="str">
+        <f>B18&amp;" "&amp;IF(F18&lt;&gt;"datetime",F18&amp;"("&amp;G18&amp;")",F18)&amp;IF(E18="N"," NOT NULL","")&amp;IF(H18&lt;&gt;""," DEFAULT "&amp;H18,IF(F18&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C18&amp;"',"</f>
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
     </row>
@@ -6869,8 +6861,8 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J19" s="40" t="str">
+        <f>B19&amp;" "&amp;IF(F19&lt;&gt;"datetime",F19&amp;"("&amp;G19&amp;")",F19)&amp;IF(E19="N"," NOT NULL","")&amp;IF(H19&lt;&gt;""," DEFAULT "&amp;H19,IF(F19&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C19&amp;"',"</f>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
@@ -6889,14 +6881,14 @@
         <v>11</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',</v>
+      <c r="J20" s="40" t="str">
+        <f>B20&amp;" "&amp;IF(F20&lt;&gt;"datetime",F20&amp;"("&amp;G20&amp;")",F20)&amp;IF(E20="N"," NOT NULL","")&amp;IF(H20&lt;&gt;""," DEFAULT "&amp;H20,IF(F20&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C20&amp;"',"</f>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
@@ -6921,8 +6913,8 @@
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J21" s="40" t="str">
+        <f>B21&amp;" "&amp;IF(F21&lt;&gt;"datetime",F21&amp;"("&amp;G21&amp;")",F21)&amp;IF(E21="N"," NOT NULL","")&amp;IF(H21&lt;&gt;""," DEFAULT "&amp;H21,IF(F21&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C21&amp;"',"</f>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
@@ -6941,14 +6933,14 @@
         <v>11</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="31"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '更新时间',</v>
+      <c r="J22" s="40" t="str">
+        <f>B22&amp;" "&amp;IF(F22&lt;&gt;"datetime",F22&amp;"("&amp;G22&amp;")",F22)&amp;IF(E22="N"," NOT NULL","")&amp;IF(H22&lt;&gt;""," DEFAULT "&amp;H22,IF(F22&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C22&amp;"',"</f>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
@@ -6973,8 +6965,8 @@
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="61" t="str">
-        <f t="shared" si="0"/>
+      <c r="J23" s="40" t="str">
+        <f>B23&amp;" "&amp;IF(F23&lt;&gt;"datetime",F23&amp;"("&amp;G23&amp;")",F23)&amp;IF(E23="N"," NOT NULL","")&amp;IF(H23&lt;&gt;""," DEFAULT "&amp;H23,IF(F23&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C23&amp;"',"</f>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
@@ -7002,10 +6994,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J24" s="40" t="str">
+        <f>B24&amp;" "&amp;IF(F24&lt;&gt;"datetime",F24&amp;"("&amp;G24&amp;")",F24)&amp;IF(E24="N"," NOT NULL","")&amp;IF(H24&lt;&gt;""," DEFAULT "&amp;H24,IF(F24&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C24&amp;"',"</f>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
@@ -7047,44 +7039,44 @@
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A30" s="13">
         <v>1</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="F30" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
@@ -7095,21 +7087,21 @@
         <v>2</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
+      <c r="F31" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
@@ -7137,7 +7129,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7155,38 +7147,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -7216,7 +7208,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="61" t="str">
+      <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_role_office (</v>
       </c>
@@ -7226,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -7238,17 +7230,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="61" t="str">
-        <f t="shared" ref="J4:J5" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"timestamp",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"timestamp",""," DEFAULT CURRENT_TIMESTAMP"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>156</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
@@ -7257,10 +7249,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -7269,45 +7261,45 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="61" t="str">
-        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="65"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="65"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
@@ -7330,32 +7322,32 @@
         <v>27</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="sys_office" sheetId="52" r:id="rId8"/>
     <sheet name="sys_role_office" sheetId="53" r:id="rId9"/>
     <sheet name="sys_dict" sheetId="54" r:id="rId10"/>
-    <sheet name="sys_log" sheetId="55" r:id="rId11"/>
+    <sheet name="sys_circle" sheetId="56" r:id="rId11"/>
+    <sheet name="sys_log" sheetId="55" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="262">
   <si>
     <t/>
   </si>
@@ -1488,12 +1489,92 @@
   <si>
     <t>datetime</t>
   </si>
+  <si>
+    <t>地区信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：国级 2：省级 3：市级 4：县级 5：街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区名字拼英表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_log_create_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_log_request_uri </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,7 +1721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1890,6 +1971,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1900,7 +2011,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2045,15 +2156,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2081,6 +2183,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2104,6 +2215,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2130,7 +2250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2172,7 +2292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2204,9 +2324,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2238,6 +2376,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2413,23 +2569,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2597,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
@@ -2453,7 +2609,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1">
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -2463,7 +2619,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1">
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2631,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2507,25 +2663,25 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2537,50 +2693,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>213</v>
       </c>
@@ -2590,9 +2746,9 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2625,7 +2781,7 @@
         <v>CREATE TABLE sys_dict (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2652,11 +2808,11 @@
         <v>156</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J16" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2681,11 +2837,11 @@
         <v>198</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -2708,11 +2864,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="40" t="str">
-        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -2735,11 +2891,11 @@
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
       <c r="J7" s="40" t="str">
-        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -2762,11 +2918,11 @@
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="40" t="str">
-        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -2789,11 +2945,11 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="40" t="str">
-        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -2816,11 +2972,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="40" t="str">
-        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -2843,11 +2999,11 @@
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="40" t="str">
-        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -2868,11 +3024,11 @@
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
       <c r="J12" s="40" t="str">
-        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -2895,11 +3051,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="40" t="str">
-        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>11</v>
       </c>
@@ -2920,11 +3076,11 @@
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
       <c r="J14" s="40" t="str">
-        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>12</v>
       </c>
@@ -2947,11 +3103,11 @@
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
       <c r="J15" s="40" t="str">
-        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>13</v>
       </c>
@@ -2978,11 +3134,11 @@
         <v>207</v>
       </c>
       <c r="J16" s="40" t="str">
-        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="45"/>
       <c r="C17" s="41"/>
@@ -2997,7 +3153,7 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="45"/>
       <c r="C18" s="41"/>
@@ -3012,19 +3168,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J20" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
@@ -3047,7 +3203,7 @@
       <c r="H21" s="66"/>
       <c r="I21" s="67"/>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -3070,7 +3226,7 @@
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1">
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3111,52 +3267,52 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
@@ -3164,9 +3320,535 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="40" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE sys_circle (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="1">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f t="shared" ref="J4:J14" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="12">
+        <v>64</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(64) DEFAULT 1 COMMENT '地区名字',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>level char(1) COMMENT '级别',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>4</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>parent_id varchar(32) COMMENT '操作IP地址',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>6</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="6">
+        <v>64</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>py varchar(64) COMMENT '地区名字拼英表示',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>sort int(4) COMMENT '序号',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>8</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="6">
+        <v>256</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>full_name varchar(256) COMMENT '操作方式',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="6">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>lat varchar(24) COMMENT '维度',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>10</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="6">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>lng varchar(24) COMMENT '经度',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>11</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="1">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>child_url varchar(32) COMMENT '',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="24" t="str">
+        <f>"PRIMARY KEY ("&amp;B5&amp;")"</f>
+        <v>PRIMARY KEY (name)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="24" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="24" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="24" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" t="str">
+        <f>F20</f>
+        <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" t="str">
+        <f>F21</f>
+        <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3199,7 +3881,7 @@
         <v>CREATE TABLE sys_log (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3226,11 +3908,11 @@
         <v>156</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J13" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3257,11 +3939,11 @@
         <v>231</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -3284,11 +3966,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="40" t="str">
-        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -3309,11 +3991,11 @@
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
       <c r="J7" s="40" t="str">
-        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -3336,11 +4018,11 @@
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="40" t="str">
-        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -3363,11 +4045,11 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="40" t="str">
-        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -3390,11 +4072,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="40" t="str">
-        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -3417,11 +4099,11 @@
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="40" t="str">
-        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -3442,11 +4124,11 @@
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
       <c r="J12" s="40" t="str">
-        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -3467,11 +4149,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="40" t="str">
-        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="45"/>
       <c r="C14" s="41"/>
@@ -3486,7 +4168,7 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="41"/>
@@ -3501,19 +4183,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +4218,7 @@
       <c r="H18" s="66"/>
       <c r="I18" s="67"/>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -3559,7 +4241,7 @@
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -3600,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3608,16 +4290,16 @@
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +4316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3650,7 +4332,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3666,7 +4348,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3682,7 +4364,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3698,7 +4380,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3714,7 +4396,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3730,7 +4412,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3746,7 +4428,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3762,11 +4444,11 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="70" t="s">
         <v>240</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3775,7 +4457,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3791,7 +4473,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3800,7 +4482,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3809,7 +4491,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3818,7 +4500,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3827,7 +4509,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3836,7 +4518,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3856,7 +4538,7 @@
     <hyperlink ref="B7" location="sys_office!A1" display="sys_office"/>
     <hyperlink ref="B8" location="sys_role_office!A1" display="sys_role_office"/>
     <hyperlink ref="B9" location="sys_dict!A1" display="sys_dict"/>
-    <hyperlink ref="B10" location="sys_dict!A1" display="sys_dict"/>
+    <hyperlink ref="B10" location="sys_circle!A1" display="sys_circle"/>
     <hyperlink ref="B11" location="sys_log!A1" display="sys_log"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3865,62 +4547,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="47.125" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="30">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3954,7 +4636,7 @@
       </c>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3981,12 +4663,12 @@
         <v>120</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J24" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4009,12 +4691,12 @@
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="40" t="str">
-        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>company_id varchar(32) COMMENT '归属公司',</v>
       </c>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4039,11 +4721,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
-        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4068,11 +4750,11 @@
         <v>83</v>
       </c>
       <c r="J7" s="40" t="str">
-        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4095,11 +4777,11 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="40" t="str">
-        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4124,11 +4806,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="40" t="str">
-        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4153,11 +4835,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4182,11 +4864,11 @@
         <v>0</v>
       </c>
       <c r="J11" s="40" t="str">
-        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4209,11 +4891,11 @@
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
       <c r="J12" s="40" t="str">
-        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4236,11 +4918,11 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="40" t="str">
-        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4267,11 +4949,11 @@
         <v>87</v>
       </c>
       <c r="J14" s="40" t="str">
-        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4296,11 +4978,11 @@
         <v>89</v>
       </c>
       <c r="J15" s="40" t="str">
-        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4323,11 +5005,11 @@
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="40" t="str">
-        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4348,11 +5030,11 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="40" t="str">
-        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -4375,11 +5057,11 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="40" t="str">
-        <f>B18&amp;" "&amp;IF(F18&lt;&gt;"datetime",F18&amp;"("&amp;G18&amp;")",F18)&amp;IF(E18="N"," NOT NULL","")&amp;IF(H18&lt;&gt;""," DEFAULT "&amp;H18,IF(F18&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C18&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -4402,11 +5084,11 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="40" t="str">
-        <f>B19&amp;" "&amp;IF(F19&lt;&gt;"datetime",F19&amp;"("&amp;G19&amp;")",F19)&amp;IF(E19="N"," NOT NULL","")&amp;IF(H19&lt;&gt;""," DEFAULT "&amp;H19,IF(F19&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C19&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -4427,11 +5109,11 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="40" t="str">
-        <f>B20&amp;" "&amp;IF(F20&lt;&gt;"datetime",F20&amp;"("&amp;G20&amp;")",F20)&amp;IF(E20="N"," NOT NULL","")&amp;IF(H20&lt;&gt;""," DEFAULT "&amp;H20,IF(F20&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C20&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -4454,11 +5136,11 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="40" t="str">
-        <f>B21&amp;" "&amp;IF(F21&lt;&gt;"datetime",F21&amp;"("&amp;G21&amp;")",F21)&amp;IF(E21="N"," NOT NULL","")&amp;IF(H21&lt;&gt;""," DEFAULT "&amp;H21,IF(F21&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C21&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -4479,11 +5161,11 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="40" t="str">
-        <f>B22&amp;" "&amp;IF(F22&lt;&gt;"datetime",F22&amp;"("&amp;G22&amp;")",F22)&amp;IF(E22="N"," NOT NULL","")&amp;IF(H22&lt;&gt;""," DEFAULT "&amp;H22,IF(F22&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C22&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -4506,11 +5188,11 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="40" t="str">
-        <f>B23&amp;" "&amp;IF(F23&lt;&gt;"datetime",F23&amp;"("&amp;G23&amp;")",F23)&amp;IF(E23="N"," NOT NULL","")&amp;IF(H23&lt;&gt;""," DEFAULT "&amp;H23,IF(F23&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C23&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -4537,35 +5219,35 @@
         <v>90</v>
       </c>
       <c r="J24" s="40" t="str">
-        <f>B24&amp;" "&amp;IF(F24&lt;&gt;"datetime",F24&amp;"("&amp;G24&amp;")",F24)&amp;IF(E24="N"," NOT NULL","")&amp;IF(H24&lt;&gt;""," DEFAULT "&amp;H24,IF(F24&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C24&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -4581,14 +5263,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="1:10" ht="15">
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -4602,18 +5284,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1">
+    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -4627,18 +5309,18 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:J32" si="0">F31</f>
+        <f t="shared" ref="J31:J32" si="1">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>3</v>
       </c>
@@ -4652,28 +5334,28 @@
         <v>152</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4685,62 +5367,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="51.75" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="51.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -4773,7 +5455,7 @@
         <v>CREATE TABLE sys_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4800,11 +5482,11 @@
         <v>120</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J17" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4827,11 +5509,11 @@
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="40" t="str">
-        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4856,11 +5538,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
-        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4883,11 +5565,11 @@
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
       <c r="J7" s="40" t="str">
-        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4910,11 +5592,11 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="40" t="str">
-        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4939,11 +5621,11 @@
         <v>117</v>
       </c>
       <c r="J9" s="40" t="str">
-        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4970,11 +5652,11 @@
         <v>122</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5001,11 +5683,11 @@
         <v>123</v>
       </c>
       <c r="J11" s="40" t="str">
-        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5028,11 +5710,11 @@
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
       <c r="J12" s="40" t="str">
-        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5053,11 +5735,11 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="40" t="str">
-        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5080,11 +5762,11 @@
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="40" t="str">
-        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5105,11 +5787,11 @@
       <c r="H15" s="13"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="str">
-        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5132,11 +5814,11 @@
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="40" t="str">
-        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5159,35 +5841,35 @@
         <v>119</v>
       </c>
       <c r="J17" s="40" t="str">
-        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J18" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J21" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>27</v>
       </c>
@@ -5203,14 +5885,14 @@
       <c r="E22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -5224,12 +5906,12 @@
         <v>152</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
@@ -5252,50 +5934,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -5305,9 +5987,9 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5340,7 +6022,7 @@
         <v>CREATE TABLE sys_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5367,11 +6049,11 @@
         <v>120</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J19" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5394,11 +6076,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="3"/>
       <c r="J5" s="40" t="str">
-        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5421,11 +6103,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
       <c r="J6" s="40" t="str">
-        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -5450,11 +6132,11 @@
         <v>0</v>
       </c>
       <c r="J7" s="40" t="str">
-        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5479,11 +6161,11 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="40" t="str">
-        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5506,11 +6188,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="40" t="str">
-        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5535,11 +6217,11 @@
         <v>146</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>target varchar(20) COMMENT '目标',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5562,11 +6244,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
       <c r="J11" s="40" t="str">
-        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>icon varchar(128) COMMENT '图标',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5591,11 +6273,11 @@
         <v>147</v>
       </c>
       <c r="J12" s="40" t="str">
-        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -5620,11 +6302,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="40" t="str">
-        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>permission varchar(128) COMMENT '权限标识',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -5649,11 +6331,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="40" t="str">
-        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -5676,11 +6358,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="40" t="str">
-        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -5705,11 +6387,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="40" t="str">
-        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -5732,11 +6414,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="40" t="str">
-        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -5761,11 +6443,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="40" t="str">
-        <f>B18&amp;" "&amp;IF(F18&lt;&gt;"datetime",F18&amp;"("&amp;G18&amp;")",F18)&amp;IF(E18="N"," NOT NULL","")&amp;IF(H18&lt;&gt;""," DEFAULT "&amp;H18,IF(F18&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C18&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -5792,35 +6474,35 @@
         <v>149</v>
       </c>
       <c r="J19" s="40" t="str">
-        <f>B19&amp;" "&amp;IF(F19&lt;&gt;"datetime",F19&amp;"("&amp;G19&amp;")",F19)&amp;IF(E19="N"," NOT NULL","")&amp;IF(H19&lt;&gt;""," DEFAULT "&amp;H19,IF(F19&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C19&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J21" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J22" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J23" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
@@ -5836,14 +6518,14 @@
       <c r="E24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>1</v>
       </c>
@@ -5857,12 +6539,12 @@
         <v>152</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
       <c r="J25" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
@@ -5885,48 +6567,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>160</v>
       </c>
@@ -5936,9 +6618,9 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5971,7 +6653,7 @@
         <v>CREATE TABLE sys_user_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6002,7 +6684,7 @@
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6033,7 +6715,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -6048,7 +6730,7 @@
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -6063,19 +6745,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6091,12 +6773,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6114,49 +6796,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>163</v>
       </c>
@@ -6166,9 +6848,9 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6201,7 +6883,7 @@
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6232,7 +6914,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6263,31 +6945,31 @@
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,menu_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6303,15 +6985,15 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="24"/>
     </row>
   </sheetData>
@@ -6330,62 +7012,62 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.875" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6418,7 +7100,7 @@
         <v>CREATE TABLE sys_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -6445,11 +7127,11 @@
         <v>120</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="J4:J24" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -6472,11 +7154,11 @@
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="40" t="str">
-        <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -6501,11 +7183,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
-        <f>B6&amp;" "&amp;IF(F6&lt;&gt;"datetime",F6&amp;"("&amp;G6&amp;")",F6)&amp;IF(E6="N"," NOT NULL","")&amp;IF(H6&lt;&gt;""," DEFAULT "&amp;H6,IF(F6&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C6&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -6528,11 +7210,11 @@
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
       <c r="J7" s="40" t="str">
-        <f>B7&amp;" "&amp;IF(F7&lt;&gt;"datetime",F7&amp;"("&amp;G7&amp;")",F7)&amp;IF(E7="N"," NOT NULL","")&amp;IF(H7&lt;&gt;""," DEFAULT "&amp;H7,IF(F7&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C7&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -6557,11 +7239,11 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="40" t="str">
-        <f>B8&amp;" "&amp;IF(F8&lt;&gt;"datetime",F8&amp;"("&amp;G8&amp;")",F8)&amp;IF(E8="N"," NOT NULL","")&amp;IF(H8&lt;&gt;""," DEFAULT "&amp;H8,IF(F8&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C8&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -6586,11 +7268,11 @@
         <v>186</v>
       </c>
       <c r="J9" s="40" t="str">
-        <f>B9&amp;" "&amp;IF(F9&lt;&gt;"datetime",F9&amp;"("&amp;G9&amp;")",F9)&amp;IF(E9="N"," NOT NULL","")&amp;IF(H9&lt;&gt;""," DEFAULT "&amp;H9,IF(F9&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C9&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -6615,11 +7297,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>B10&amp;" "&amp;IF(F10&lt;&gt;"datetime",F10&amp;"("&amp;G10&amp;")",F10)&amp;IF(E10="N"," NOT NULL","")&amp;IF(H10&lt;&gt;""," DEFAULT "&amp;H10,IF(F10&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C10&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -6644,11 +7326,11 @@
         <v>187</v>
       </c>
       <c r="J11" s="40" t="str">
-        <f>B11&amp;" "&amp;IF(F11&lt;&gt;"datetime",F11&amp;"("&amp;G11&amp;")",F11)&amp;IF(E11="N"," NOT NULL","")&amp;IF(H11&lt;&gt;""," DEFAULT "&amp;H11,IF(F11&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C11&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -6673,11 +7355,11 @@
         <v>189</v>
       </c>
       <c r="J12" s="40" t="str">
-        <f>B12&amp;" "&amp;IF(F12&lt;&gt;"datetime",F12&amp;"("&amp;G12&amp;")",F12)&amp;IF(E12="N"," NOT NULL","")&amp;IF(H12&lt;&gt;""," DEFAULT "&amp;H12,IF(F12&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C12&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -6700,11 +7382,11 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="40" t="str">
-        <f>B13&amp;" "&amp;IF(F13&lt;&gt;"datetime",F13&amp;"("&amp;G13&amp;")",F13)&amp;IF(E13="N"," NOT NULL","")&amp;IF(H13&lt;&gt;""," DEFAULT "&amp;H13,IF(F13&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C13&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -6727,11 +7409,11 @@
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="40" t="str">
-        <f>B14&amp;" "&amp;IF(F14&lt;&gt;"datetime",F14&amp;"("&amp;G14&amp;")",F14)&amp;IF(E14="N"," NOT NULL","")&amp;IF(H14&lt;&gt;""," DEFAULT "&amp;H14,IF(F14&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C14&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -6754,11 +7436,11 @@
       <c r="H15" s="13"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="str">
-        <f>B15&amp;" "&amp;IF(F15&lt;&gt;"datetime",F15&amp;"("&amp;G15&amp;")",F15)&amp;IF(E15="N"," NOT NULL","")&amp;IF(H15&lt;&gt;""," DEFAULT "&amp;H15,IF(F15&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C15&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -6781,11 +7463,11 @@
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="40" t="str">
-        <f>B16&amp;" "&amp;IF(F16&lt;&gt;"datetime",F16&amp;"("&amp;G16&amp;")",F16)&amp;IF(E16="N"," NOT NULL","")&amp;IF(H16&lt;&gt;""," DEFAULT "&amp;H16,IF(F16&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C16&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -6808,11 +7490,11 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="40" t="str">
-        <f>B17&amp;" "&amp;IF(F17&lt;&gt;"datetime",F17&amp;"("&amp;G17&amp;")",F17)&amp;IF(E17="N"," NOT NULL","")&amp;IF(H17&lt;&gt;""," DEFAULT "&amp;H17,IF(F17&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C17&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -6835,11 +7517,11 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="40" t="str">
-        <f>B18&amp;" "&amp;IF(F18&lt;&gt;"datetime",F18&amp;"("&amp;G18&amp;")",F18)&amp;IF(E18="N"," NOT NULL","")&amp;IF(H18&lt;&gt;""," DEFAULT "&amp;H18,IF(F18&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C18&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -6862,11 +7544,11 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="40" t="str">
-        <f>B19&amp;" "&amp;IF(F19&lt;&gt;"datetime",F19&amp;"("&amp;G19&amp;")",F19)&amp;IF(E19="N"," NOT NULL","")&amp;IF(H19&lt;&gt;""," DEFAULT "&amp;H19,IF(F19&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C19&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -6887,11 +7569,11 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="40" t="str">
-        <f>B20&amp;" "&amp;IF(F20&lt;&gt;"datetime",F20&amp;"("&amp;G20&amp;")",F20)&amp;IF(E20="N"," NOT NULL","")&amp;IF(H20&lt;&gt;""," DEFAULT "&amp;H20,IF(F20&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C20&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -6914,11 +7596,11 @@
       <c r="H21" s="27"/>
       <c r="I21" s="30"/>
       <c r="J21" s="40" t="str">
-        <f>B21&amp;" "&amp;IF(F21&lt;&gt;"datetime",F21&amp;"("&amp;G21&amp;")",F21)&amp;IF(E21="N"," NOT NULL","")&amp;IF(H21&lt;&gt;""," DEFAULT "&amp;H21,IF(F21&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C21&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -6939,11 +7621,11 @@
       <c r="H22" s="31"/>
       <c r="I22" s="34"/>
       <c r="J22" s="40" t="str">
-        <f>B22&amp;" "&amp;IF(F22&lt;&gt;"datetime",F22&amp;"("&amp;G22&amp;")",F22)&amp;IF(E22="N"," NOT NULL","")&amp;IF(H22&lt;&gt;""," DEFAULT "&amp;H22,IF(F22&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C22&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -6966,11 +7648,11 @@
       <c r="H23" s="31"/>
       <c r="I23" s="34"/>
       <c r="J23" s="40" t="str">
-        <f>B23&amp;" "&amp;IF(F23&lt;&gt;"datetime",F23&amp;"("&amp;G23&amp;")",F23)&amp;IF(E23="N"," NOT NULL","")&amp;IF(H23&lt;&gt;""," DEFAULT "&amp;H23,IF(F23&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C23&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -6997,11 +7679,11 @@
         <v>90</v>
       </c>
       <c r="J24" s="40" t="str">
-        <f>B24&amp;" "&amp;IF(F24&lt;&gt;"datetime",F24&amp;"("&amp;G24&amp;")",F24)&amp;IF(E24="N"," NOT NULL","")&amp;IF(H24&lt;&gt;""," DEFAULT "&amp;H24,IF(F24&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C24&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -7016,25 +7698,25 @@
         <v>PRIMARY KEY (type)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -7050,14 +7732,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -7071,18 +7753,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" customHeight="1">
+    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -7096,12 +7778,12 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
@@ -7125,50 +7807,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
         <v>195</v>
       </c>
@@ -7178,9 +7860,9 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7213,7 +7895,7 @@
         <v>CREATE TABLE sys_role_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7244,7 +7926,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7275,7 +7957,7 @@
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -7290,7 +7972,7 @@
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -7305,19 +7987,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -7333,12 +8015,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,13 @@
     <sheet name="sys_office" sheetId="52" r:id="rId8"/>
     <sheet name="sys_role_office" sheetId="53" r:id="rId9"/>
     <sheet name="sys_dict" sheetId="54" r:id="rId10"/>
-    <sheet name="sys_circle" sheetId="56" r:id="rId11"/>
+    <sheet name="sys_area" sheetId="56" r:id="rId11"/>
     <sheet name="sys_log" sheetId="55" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1483,10 +1483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys_circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -1506,10 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1：国级 2：省级 3：市级 4：县级 5：街道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1567,14 +1559,22 @@
   </si>
   <si>
     <t xml:space="preserve">sys_log_request_uri </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2011,7 +2011,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2153,8 +2153,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2183,15 +2198,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2215,15 +2221,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2250,7 +2247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2292,7 +2289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2324,27 +2321,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2376,24 +2355,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2569,23 +2530,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2597,29 +2558,29 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2631,7 +2592,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2648,7 +2609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2663,25 +2624,25 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2693,62 +2654,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2781,7 +2742,7 @@
         <v>CREATE TABLE sys_dict (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2812,7 +2773,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2841,7 +2802,7 @@
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -2868,7 +2829,7 @@
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -2895,7 +2856,7 @@
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -2922,7 +2883,7 @@
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -2949,7 +2910,7 @@
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -2976,7 +2937,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -3003,7 +2964,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -3018,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3028,7 +2989,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -3055,7 +3016,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="35">
         <v>11</v>
       </c>
@@ -3070,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3080,7 +3041,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="35">
         <v>12</v>
       </c>
@@ -3107,7 +3068,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="35">
         <v>13</v>
       </c>
@@ -3138,7 +3099,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="45"/>
       <c r="C17" s="41"/>
@@ -3153,7 +3114,7 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="45"/>
       <c r="C18" s="41"/>
@@ -3168,19 +3129,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="J19" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="J20" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
@@ -3196,14 +3157,14 @@
       <c r="E21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -3215,18 +3176,18 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" t="str">
         <f>F22</f>
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3238,12 +3199,12 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_dict_label ON sys_dict (label ASC);</v>
@@ -3267,62 +3228,62 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3352,10 +3313,10 @@
       </c>
       <c r="J3" s="40" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
-        <v>CREATE TABLE sys_circle (</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>CREATE TABLE sys_area (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3386,15 +3347,15 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>243</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>244</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
@@ -3403,7 +3364,7 @@
       <c r="F5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="1">
         <v>64</v>
       </c>
       <c r="H5" s="12">
@@ -3417,15 +3378,15 @@
         <v>name varchar(64) DEFAULT 1 COMMENT '地区名字',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="12" t="s">
@@ -3434,24 +3395,24 @@
       <c r="F6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J6" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>level char(1) COMMENT '级别',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>level char(1) COMMENT '行政级别',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="35">
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>60</v>
@@ -3463,7 +3424,7 @@
       <c r="F7" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="31">
@@ -3477,12 +3438,12 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="35">
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>224</v>
@@ -3504,15 +3465,15 @@
         <v>parent_id varchar(32) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="35">
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
@@ -3521,7 +3482,7 @@
       <c r="F9" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="1">
         <v>64</v>
       </c>
       <c r="H9" s="6"/>
@@ -3531,12 +3492,12 @@
         <v>py varchar(64) COMMENT '地区名字拼英表示',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="35">
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>13</v>
@@ -3548,7 +3509,7 @@
       <c r="F10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
       <c r="H10" s="6"/>
@@ -3558,12 +3519,12 @@
         <v>sort int(4) COMMENT '序号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="35">
         <v>8</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>227</v>
@@ -3575,7 +3536,7 @@
       <c r="F11" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="1">
         <v>256</v>
       </c>
       <c r="H11" s="6"/>
@@ -3585,15 +3546,15 @@
         <v>full_name varchar(256) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="35">
         <v>9</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="12" t="s">
@@ -3602,7 +3563,7 @@
       <c r="F12" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="1">
         <v>24</v>
       </c>
       <c r="H12" s="6"/>
@@ -3612,15 +3573,15 @@
         <v>lat varchar(24) COMMENT '维度',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="35">
         <v>10</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="12" t="s">
@@ -3629,7 +3590,7 @@
       <c r="F13" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="1">
         <v>24</v>
       </c>
       <c r="H13" s="6"/>
@@ -3639,19 +3600,19 @@
         <v>lng varchar(24) COMMENT '经度',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="35">
         <v>11</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="48" t="s">
         <v>157</v>
       </c>
       <c r="G14" s="1">
@@ -3664,7 +3625,7 @@
         <v>child_url varchar(32) COMMENT '',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="25"/>
@@ -3679,7 +3640,7 @@
         <v>PRIMARY KEY (name)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="45"/>
       <c r="C16" s="25"/>
@@ -3694,19 +3655,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="J17" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="J18" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -3722,14 +3683,14 @@
       <c r="E19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -3737,22 +3698,22 @@
         <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="F20" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20" t="str">
         <f>F20</f>
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -3760,16 +3721,16 @@
         <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
       <c r="J21" t="str">
         <f>F21</f>
         <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
@@ -3793,62 +3754,62 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3881,7 +3842,7 @@
         <v>CREATE TABLE sys_log (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3912,7 +3873,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3943,7 +3904,7 @@
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -3970,7 +3931,7 @@
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -3985,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3995,7 +3956,7 @@
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -4022,7 +3983,7 @@
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -4049,7 +4010,7 @@
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -4076,7 +4037,7 @@
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -4103,7 +4064,7 @@
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -4128,7 +4089,7 @@
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -4153,7 +4114,7 @@
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="45"/>
       <c r="C14" s="41"/>
@@ -4168,7 +4129,7 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="41"/>
@@ -4183,19 +4144,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="J16" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="J17" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -4211,14 +4172,14 @@
       <c r="E18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -4230,18 +4191,18 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
       <c r="J19" t="str">
         <f>F19</f>
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -4253,12 +4214,12 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
       <c r="J20" t="str">
         <f>F20</f>
         <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
@@ -4282,24 +4243,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -4316,7 +4277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4332,7 +4293,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4348,7 +4309,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4364,7 +4325,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4380,7 +4341,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4396,7 +4357,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4412,7 +4373,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4428,7 +4389,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4444,12 +4405,12 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>240</v>
+      <c r="B10" s="39" t="s">
+        <v>260</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
@@ -4457,7 +4418,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4473,7 +4434,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4482,7 +4443,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4491,7 +4452,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4500,7 +4461,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4509,7 +4470,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4518,7 +4479,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4538,7 +4499,7 @@
     <hyperlink ref="B7" location="sys_office!A1" display="sys_office"/>
     <hyperlink ref="B8" location="sys_role_office!A1" display="sys_role_office"/>
     <hyperlink ref="B9" location="sys_dict!A1" display="sys_dict"/>
-    <hyperlink ref="B10" location="sys_circle!A1" display="sys_circle"/>
+    <hyperlink ref="B10" location="sys_area!A1" display="sys_area"/>
     <hyperlink ref="B11" location="sys_log!A1" display="sys_log"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,62 +4508,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="47.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="47.125" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -4636,7 +4597,7 @@
       </c>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4668,7 +4629,7 @@
       </c>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4696,7 +4657,7 @@
       </c>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4725,7 +4686,7 @@
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4754,7 +4715,7 @@
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4781,7 +4742,7 @@
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4810,7 +4771,7 @@
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4839,7 +4800,7 @@
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4868,7 +4829,7 @@
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4895,7 +4856,7 @@
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4922,7 +4883,7 @@
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4953,7 +4914,7 @@
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4982,7 +4943,7 @@
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5009,7 +4970,7 @@
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5024,7 +4985,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -5034,7 +4995,7 @@
         <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5061,7 +5022,7 @@
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5088,7 +5049,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5103,7 +5064,7 @@
         <v>99</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -5113,7 +5074,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5140,7 +5101,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5155,7 +5116,7 @@
         <v>99</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -5165,7 +5126,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5192,7 +5153,7 @@
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5223,31 +5184,31 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15">
       <c r="J25" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15">
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -5263,14 +5224,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -5284,18 +5245,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.45" customHeight="1">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -5309,18 +5270,18 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J32" si="1">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="13">
         <v>3</v>
       </c>
@@ -5334,12 +5295,12 @@
         <v>152</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
@@ -5347,15 +5308,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5367,62 +5328,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="51.77734375" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="51.75" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5455,7 +5416,7 @@
         <v>CREATE TABLE sys_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5486,7 +5447,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5513,7 +5474,7 @@
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5542,7 +5503,7 @@
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5569,7 +5530,7 @@
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5596,7 +5557,7 @@
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5625,7 +5586,7 @@
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5656,7 +5617,7 @@
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5687,7 +5648,7 @@
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5714,7 +5675,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5729,7 +5690,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5739,7 +5700,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5766,7 +5727,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5781,7 +5742,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -5791,7 +5752,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5818,7 +5779,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5833,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -5845,31 +5806,31 @@
         <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15">
       <c r="J18" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="J19" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="J20" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="J21" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="18" t="s">
         <v>27</v>
       </c>
@@ -5885,14 +5846,14 @@
       <c r="E22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -5906,12 +5867,12 @@
         <v>152</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
@@ -5934,62 +5895,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6022,7 +5983,7 @@
         <v>CREATE TABLE sys_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6053,7 +6014,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6080,7 +6041,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6107,7 +6068,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6136,7 +6097,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6165,7 +6126,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6192,7 +6153,7 @@
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -6221,7 +6182,7 @@
         <v>target varchar(20) COMMENT '目标',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6248,7 +6209,7 @@
         <v>icon varchar(128) COMMENT '图标',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6277,7 +6238,7 @@
         <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -6306,7 +6267,7 @@
         <v>permission varchar(128) COMMENT '权限标识',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -6335,7 +6296,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -6350,7 +6311,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="1"/>
@@ -6362,7 +6323,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -6391,7 +6352,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -6406,7 +6367,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="1"/>
@@ -6418,7 +6379,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -6447,7 +6408,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -6478,31 +6439,31 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="J20" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15">
       <c r="J21" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15">
       <c r="J22" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="J23" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
@@ -6518,14 +6479,14 @@
       <c r="E24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="13">
         <v>1</v>
       </c>
@@ -6539,12 +6500,12 @@
         <v>152</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
@@ -6567,60 +6528,60 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6653,7 +6614,7 @@
         <v>CREATE TABLE sys_user_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6684,7 +6645,7 @@
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6715,7 +6676,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -6730,7 +6691,7 @@
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -6745,19 +6706,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6773,12 +6734,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6796,61 +6757,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6883,7 +6844,7 @@
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6914,7 +6875,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6945,31 +6906,31 @@
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15">
       <c r="J6" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,menu_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15">
       <c r="J7" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6985,15 +6946,15 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15">
       <c r="J11" s="24"/>
     </row>
   </sheetData>
@@ -7012,62 +6973,62 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.875" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7100,7 +7061,7 @@
         <v>CREATE TABLE sys_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -7131,7 +7092,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -7158,7 +7119,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -7187,7 +7148,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -7214,7 +7175,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -7243,7 +7204,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -7272,7 +7233,7 @@
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -7301,7 +7262,7 @@
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -7330,7 +7291,7 @@
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -7359,7 +7320,7 @@
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -7386,7 +7347,7 @@
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -7413,7 +7374,7 @@
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -7440,7 +7401,7 @@
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -7467,7 +7428,7 @@
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -7494,7 +7455,7 @@
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -7521,7 +7482,7 @@
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -7548,7 +7509,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -7563,7 +7524,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -7573,7 +7534,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -7600,7 +7561,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -7615,7 +7576,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="31"/>
@@ -7625,7 +7586,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -7652,7 +7613,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -7683,7 +7644,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -7698,25 +7659,25 @@
         <v>PRIMARY KEY (type)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15">
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -7732,14 +7693,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -7753,18 +7714,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.6" customHeight="1">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -7778,12 +7739,12 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
@@ -7807,62 +7768,62 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7895,7 +7856,7 @@
         <v>CREATE TABLE sys_role_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7926,7 +7887,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7957,7 +7918,7 @@
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -7972,7 +7933,7 @@
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -7987,19 +7948,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -8015,12 +7976,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1573,8 +1573,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,15 +2162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2197,6 +2188,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2247,7 +2247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2289,7 +2289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,9 +2321,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2355,6 +2373,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2530,23 +2566,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +2594,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49" t="s">
         <v>36</v>
       </c>
@@ -2570,7 +2606,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1">
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -2580,7 +2616,7 @@
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1">
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2592,7 +2628,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2609,7 +2645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2624,25 +2660,25 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2654,50 +2690,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>213</v>
       </c>
@@ -2707,9 +2743,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2742,7 +2778,7 @@
         <v>CREATE TABLE sys_dict (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2773,7 +2809,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2802,7 +2838,7 @@
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -2829,7 +2865,7 @@
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -2856,7 +2892,7 @@
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -2883,7 +2919,7 @@
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -2910,7 +2946,7 @@
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -2937,7 +2973,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -2964,7 +3000,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -2989,7 +3025,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -3016,7 +3052,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>11</v>
       </c>
@@ -3041,7 +3077,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>12</v>
       </c>
@@ -3068,7 +3104,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>13</v>
       </c>
@@ -3099,7 +3135,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="45"/>
       <c r="C17" s="41"/>
@@ -3114,7 +3150,7 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="45"/>
       <c r="C18" s="41"/>
@@ -3129,19 +3165,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J20" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
@@ -3164,7 +3200,7 @@
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -3187,7 +3223,7 @@
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1">
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3228,50 +3264,50 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>241</v>
       </c>
@@ -3281,9 +3317,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3352,7 @@
         <v>CREATE TABLE sys_area (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3347,7 +3383,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3378,7 +3414,7 @@
         <v>name varchar(64) DEFAULT 1 COMMENT '地区名字',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -3407,7 +3443,7 @@
         <v>level char(1) COMMENT '行政级别',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -3438,7 +3474,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -3465,7 +3501,7 @@
         <v>parent_id varchar(32) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -3492,7 +3528,7 @@
         <v>py varchar(64) COMMENT '地区名字拼英表示',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -3519,7 +3555,7 @@
         <v>sort int(4) COMMENT '序号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -3546,7 +3582,7 @@
         <v>full_name varchar(256) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -3573,7 +3609,7 @@
         <v>lat varchar(24) COMMENT '维度',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -3600,7 +3636,7 @@
         <v>lng varchar(24) COMMENT '经度',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>11</v>
       </c>
@@ -3625,7 +3661,7 @@
         <v>child_url varchar(32) COMMENT '',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="25"/>
@@ -3640,7 +3676,7 @@
         <v>PRIMARY KEY (name)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="45"/>
       <c r="C16" s="25"/>
@@ -3655,19 +3691,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J17" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J18" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -3690,7 +3726,7 @@
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -3713,7 +3749,7 @@
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -3754,50 +3790,50 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>237</v>
       </c>
@@ -3807,9 +3843,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3842,7 +3878,7 @@
         <v>CREATE TABLE sys_log (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3873,7 +3909,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3904,7 +3940,7 @@
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -3931,7 +3967,7 @@
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -3956,7 +3992,7 @@
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -3983,7 +4019,7 @@
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -4010,7 +4046,7 @@
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -4037,7 +4073,7 @@
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -4064,7 +4100,7 @@
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -4089,7 +4125,7 @@
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -4114,7 +4150,7 @@
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="45"/>
       <c r="C14" s="41"/>
@@ -4129,7 +4165,7 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="41"/>
@@ -4144,19 +4180,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -4179,7 +4215,7 @@
       <c r="H18" s="68"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -4202,7 +4238,7 @@
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -4243,24 +4279,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -4277,7 +4313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4293,7 +4329,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4309,7 +4345,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4325,7 +4361,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4341,7 +4377,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4357,7 +4393,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4373,7 +4409,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4389,7 +4425,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4405,7 +4441,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4418,7 +4454,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4434,7 +4470,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4443,7 +4479,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4452,7 +4488,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4461,7 +4497,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4470,7 +4506,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4479,7 +4515,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4508,62 +4544,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="47.125" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="30">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -4597,7 +4633,7 @@
       </c>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4629,7 +4665,7 @@
       </c>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4657,7 +4693,7 @@
       </c>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4686,7 +4722,7 @@
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4715,7 +4751,7 @@
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4742,7 +4778,7 @@
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4771,7 +4807,7 @@
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4800,7 +4836,7 @@
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4829,7 +4865,7 @@
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4856,7 +4892,7 @@
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4883,7 +4919,7 @@
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4943,7 +4979,7 @@
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4970,7 +5006,7 @@
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4995,7 +5031,7 @@
         <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5022,7 +5058,7 @@
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5074,7 +5110,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5101,7 +5137,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5126,7 +5162,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5153,7 +5189,7 @@
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5184,31 +5220,31 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -5224,14 +5260,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="1:10" ht="15">
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -5245,18 +5281,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1">
+    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -5270,18 +5306,18 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J32" si="1">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>3</v>
       </c>
@@ -5295,12 +5331,12 @@
         <v>152</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
@@ -5308,15 +5344,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5328,62 +5364,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="51.75" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="51.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5416,7 +5452,7 @@
         <v>CREATE TABLE sys_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5447,7 +5483,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5474,7 +5510,7 @@
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5530,7 +5566,7 @@
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5557,7 +5593,7 @@
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5586,7 +5622,7 @@
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5617,7 +5653,7 @@
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5648,7 +5684,7 @@
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5675,7 +5711,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5700,7 +5736,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5727,7 +5763,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5752,7 +5788,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5779,7 +5815,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5806,31 +5842,31 @@
         <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J18" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J21" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>27</v>
       </c>
@@ -5846,14 +5882,14 @@
       <c r="E22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -5867,12 +5903,12 @@
         <v>152</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
@@ -5895,50 +5931,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
@@ -5948,9 +5984,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5983,7 +6019,7 @@
         <v>CREATE TABLE sys_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6014,7 +6050,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6041,7 +6077,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6068,7 +6104,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6097,7 +6133,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6126,7 +6162,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6153,7 +6189,7 @@
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -6182,7 +6218,7 @@
         <v>target varchar(20) COMMENT '目标',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6209,7 +6245,7 @@
         <v>icon varchar(128) COMMENT '图标',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6238,7 +6274,7 @@
         <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -6267,7 +6303,7 @@
         <v>permission varchar(128) COMMENT '权限标识',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -6296,7 +6332,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -6323,7 +6359,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -6352,7 +6388,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -6379,7 +6415,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -6408,7 +6444,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -6439,31 +6475,31 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J21" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J22" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J23" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
@@ -6479,14 +6515,14 @@
       <c r="E24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>1</v>
       </c>
@@ -6500,12 +6536,12 @@
         <v>152</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
       <c r="J25" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
@@ -6528,48 +6564,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>160</v>
       </c>
@@ -6579,9 +6615,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6614,7 +6650,7 @@
         <v>CREATE TABLE sys_user_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6645,7 +6681,7 @@
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6676,7 +6712,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -6691,7 +6727,7 @@
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -6706,19 +6742,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6734,12 +6770,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6757,49 +6793,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>163</v>
       </c>
@@ -6809,9 +6845,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6844,7 +6880,7 @@
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6875,7 +6911,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6906,31 +6942,31 @@
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,menu_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6946,15 +6982,15 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="24"/>
     </row>
   </sheetData>
@@ -6973,62 +7009,62 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.875" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7061,7 +7097,7 @@
         <v>CREATE TABLE sys_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -7092,7 +7128,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -7119,7 +7155,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -7148,7 +7184,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -7175,7 +7211,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -7204,7 +7240,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -7233,7 +7269,7 @@
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -7262,7 +7298,7 @@
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -7291,7 +7327,7 @@
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -7320,7 +7356,7 @@
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -7347,7 +7383,7 @@
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -7374,7 +7410,7 @@
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -7401,7 +7437,7 @@
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -7428,7 +7464,7 @@
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -7455,7 +7491,7 @@
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -7482,7 +7518,7 @@
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -7509,7 +7545,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -7534,7 +7570,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -7561,7 +7597,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -7586,7 +7622,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -7613,7 +7649,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -7644,7 +7680,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -7659,25 +7695,25 @@
         <v>PRIMARY KEY (type)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -7693,14 +7729,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -7714,18 +7750,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" customHeight="1">
+    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -7739,12 +7775,12 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
@@ -7768,50 +7804,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="62" t="s">
         <v>195</v>
       </c>
@@ -7821,9 +7857,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7856,7 +7892,7 @@
         <v>CREATE TABLE sys_role_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7887,7 +7923,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7918,7 +7954,7 @@
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -7933,7 +7969,7 @@
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -7948,19 +7984,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -7976,12 +8012,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="263">
   <si>
     <t/>
   </si>
@@ -1550,31 +1550,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys_log_create_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sys_log_request_uri </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行政级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家地区标准码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市区/县 拼接地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2011,7 +2015,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2162,6 +2166,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2188,15 +2204,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2247,7 +2254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2289,7 +2296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,27 +2328,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2373,24 +2362,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2566,23 +2537,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2594,7 +2565,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1">
       <c r="B2" s="49" t="s">
         <v>36</v>
       </c>
@@ -2606,7 +2577,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="16.5" customHeight="1">
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -2616,7 +2587,7 @@
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2628,7 +2599,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2660,25 +2631,25 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2690,62 +2661,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2749,7 @@
         <v>CREATE TABLE sys_dict (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2809,7 +2780,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2838,7 +2809,7 @@
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -2865,7 +2836,7 @@
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -2892,7 +2863,7 @@
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -2919,7 +2890,7 @@
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -2946,7 +2917,7 @@
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -2973,7 +2944,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -3000,7 +2971,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -3025,7 +2996,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -3052,7 +3023,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="35">
         <v>11</v>
       </c>
@@ -3077,7 +3048,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="35">
         <v>12</v>
       </c>
@@ -3104,7 +3075,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="35">
         <v>13</v>
       </c>
@@ -3135,7 +3106,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="45"/>
       <c r="C17" s="41"/>
@@ -3150,12 +3121,14 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="45"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="51"/>
       <c r="F18" s="42"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
@@ -3165,19 +3138,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="J19" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="J20" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
@@ -3193,14 +3166,14 @@
       <c r="E21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -3212,18 +3185,18 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
       <c r="J22" t="str">
         <f>F22</f>
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3235,19 +3208,19 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_dict_label ON sys_dict (label ASC);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
@@ -3256,70 +3229,74 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D18:E18" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3352,12 +3329,12 @@
         <v>CREATE TABLE sys_area (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>39</v>
@@ -3376,14 +3353,14 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="J4" s="40" t="str">
         <f t="shared" ref="J4:J14" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3414,7 +3391,7 @@
         <v>name varchar(64) DEFAULT 1 COMMENT '地区名字',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -3422,7 +3399,7 @@
         <v>244</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="12" t="s">
@@ -3443,7 +3420,7 @@
         <v>level char(1) COMMENT '行政级别',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -3474,7 +3451,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -3501,7 +3478,7 @@
         <v>parent_id varchar(32) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -3528,7 +3505,7 @@
         <v>py varchar(64) COMMENT '地区名字拼英表示',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -3555,7 +3532,7 @@
         <v>sort int(4) COMMENT '序号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -3563,7 +3540,7 @@
         <v>251</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="12" t="s">
@@ -3579,10 +3556,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>full_name varchar(256) COMMENT '操作方式',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>full_name varchar(256) COMMENT '省市区/县 拼接地址',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -3609,7 +3586,7 @@
         <v>lat varchar(24) COMMENT '维度',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -3636,7 +3613,7 @@
         <v>lng varchar(24) COMMENT '经度',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="35">
         <v>11</v>
       </c>
@@ -3661,7 +3638,7 @@
         <v>child_url varchar(32) COMMENT '',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="25"/>
@@ -3676,12 +3653,14 @@
         <v>PRIMARY KEY (name)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="45"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="D16" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="51"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="46"/>
@@ -3691,19 +3670,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="J17" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="J18" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -3719,61 +3698,53 @@
       <c r="E19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="6">
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>257</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" t="str">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20">
         <f>F20</f>
-        <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="6">
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" t="str">
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21">
         <f>F21</f>
-        <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
@@ -3782,70 +3753,74 @@
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D16:E16" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3878,7 +3853,7 @@
         <v>CREATE TABLE sys_log (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3909,7 +3884,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3940,7 +3915,7 @@
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -3967,7 +3942,7 @@
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -3992,7 +3967,7 @@
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="35">
         <v>5</v>
       </c>
@@ -4019,7 +3994,7 @@
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -4046,7 +4021,7 @@
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -4073,7 +4048,7 @@
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -4100,7 +4075,7 @@
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="35">
         <v>9</v>
       </c>
@@ -4125,7 +4100,7 @@
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="35">
         <v>10</v>
       </c>
@@ -4150,7 +4125,7 @@
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="45"/>
       <c r="C14" s="41"/>
@@ -4165,12 +4140,14 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="51"/>
       <c r="F15" s="42"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
@@ -4180,19 +4157,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="J16" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="J17" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -4208,14 +4185,14 @@
       <c r="E18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -4227,18 +4204,18 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
       <c r="J19" t="str">
         <f>F19</f>
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -4250,19 +4227,19 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
       <c r="J20" t="str">
         <f>F20</f>
         <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A1:B1"/>
@@ -4271,32 +4248,36 @@
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D15:E15" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -4313,7 +4294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4329,7 +4310,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4345,7 +4326,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4361,7 +4342,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4377,7 +4358,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4393,7 +4374,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4409,7 +4390,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4425,7 +4406,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4441,20 +4422,23 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="str">
+        <f>sys_area!C2</f>
+        <v>地区信息表</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4470,7 +4454,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4479,7 +4463,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4488,7 +4472,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4497,7 +4481,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4506,7 +4490,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4515,7 +4499,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4544,62 +4528,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="47.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="47.125" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -4633,7 +4617,7 @@
       </c>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4665,7 +4649,7 @@
       </c>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4693,7 +4677,7 @@
       </c>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4722,7 +4706,7 @@
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4751,7 +4735,7 @@
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4778,7 +4762,7 @@
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4807,7 +4791,7 @@
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4836,7 +4820,7 @@
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4865,7 +4849,7 @@
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4892,7 +4876,7 @@
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4919,7 +4903,7 @@
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4950,7 +4934,7 @@
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4979,7 +4963,7 @@
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5006,7 +4990,7 @@
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5031,7 +5015,7 @@
         <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5058,7 +5042,7 @@
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5085,7 +5069,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5110,7 +5094,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5137,7 +5121,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5162,7 +5146,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5189,7 +5173,7 @@
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5220,31 +5204,35 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15">
       <c r="J25" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15">
+      <c r="D26" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="51"/>
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -5260,14 +5248,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -5281,18 +5269,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.45" customHeight="1">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -5306,18 +5294,18 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J32" si="1">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="13">
         <v>3</v>
       </c>
@@ -5331,32 +5319,34 @@
         <v>152</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F30:I30"/>
+  <mergeCells count="10">
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="D26:E26" location="目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -5364,62 +5354,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="51.77734375" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="51.75" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5452,7 +5442,7 @@
         <v>CREATE TABLE sys_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5483,7 +5473,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5510,7 +5500,7 @@
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5539,7 +5529,7 @@
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5566,7 +5556,7 @@
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5593,7 +5583,7 @@
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5622,7 +5612,7 @@
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5653,7 +5643,7 @@
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5684,7 +5674,7 @@
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5711,7 +5701,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5736,7 +5726,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5763,7 +5753,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5788,7 +5778,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5815,7 +5805,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5842,31 +5832,35 @@
         <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15">
       <c r="J18" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
+      <c r="D19" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="51"/>
       <c r="J19" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="J20" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="J21" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="18" t="s">
         <v>27</v>
       </c>
@@ -5882,14 +5876,14 @@
       <c r="E22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -5903,19 +5897,19 @@
         <v>152</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A1:B1"/>
@@ -5923,70 +5917,74 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D19:E19" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:I19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6019,7 +6017,7 @@
         <v>CREATE TABLE sys_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6050,7 +6048,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6077,7 +6075,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6104,7 +6102,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6162,7 +6160,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6189,7 +6187,7 @@
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>target varchar(20) COMMENT '目标',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6245,7 +6243,7 @@
         <v>icon varchar(128) COMMENT '图标',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6274,7 +6272,7 @@
         <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -6303,7 +6301,7 @@
         <v>permission varchar(128) COMMENT '权限标识',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -6332,7 +6330,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -6359,7 +6357,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -6415,7 +6413,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -6475,31 +6473,35 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="J20" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15">
+      <c r="D21" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="51"/>
       <c r="J21" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15">
       <c r="J22" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="J23" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
@@ -6515,14 +6517,14 @@
       <c r="E24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="13">
         <v>1</v>
       </c>
@@ -6536,19 +6538,19 @@
         <v>152</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="A1:B1"/>
@@ -6556,68 +6558,72 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F24:I24"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D21:E21" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>CREATE TABLE sys_user_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6712,7 +6718,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -6727,12 +6733,14 @@
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="D7" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -6742,19 +6750,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6770,84 +6778,88 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7:E7" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6880,7 +6892,7 @@
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6911,7 +6923,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6942,31 +6954,35 @@
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15">
       <c r="J6" s="24" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,menu_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15">
+      <c r="D7" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="J7" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6982,89 +6998,93 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15">
       <c r="J11" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7:E7" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.875" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7097,7 +7117,7 @@
         <v>CREATE TABLE sys_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -7128,7 +7148,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -7155,7 +7175,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -7184,7 +7204,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -7211,7 +7231,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -7240,7 +7260,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -7269,7 +7289,7 @@
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -7298,7 +7318,7 @@
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -7327,7 +7347,7 @@
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -7356,7 +7376,7 @@
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -7383,7 +7403,7 @@
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -7410,7 +7430,7 @@
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -7437,7 +7457,7 @@
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -7464,7 +7484,7 @@
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -7491,7 +7511,7 @@
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -7518,7 +7538,7 @@
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -7545,7 +7565,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -7570,7 +7590,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -7597,7 +7617,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -7622,7 +7642,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -7649,7 +7669,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -7680,7 +7700,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -7695,25 +7715,29 @@
         <v>PRIMARY KEY (type)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15">
+      <c r="D26" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="51"/>
       <c r="J26" s="24" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15">
       <c r="J27" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="J28" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -7729,14 +7753,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -7750,18 +7774,18 @@
         <v>152</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.6" customHeight="1">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -7775,19 +7799,19 @@
         <v>152</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="A1:B1"/>
@@ -7796,70 +7820,74 @@
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D26:E26" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7892,7 +7920,7 @@
         <v>CREATE TABLE sys_role_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7923,7 +7951,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7954,7 +7982,7 @@
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
@@ -7969,12 +7997,14 @@
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="D7" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -7984,19 +8014,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="J8" s="24" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="J9" s="24" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -8012,23 +8042,27 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7:E7" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="266">
   <si>
     <t/>
   </si>
@@ -881,220 +881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>mainFrame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> _blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>_self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>_parent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>_top</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否在菜单中显示（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：显示；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：不显示）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除标记（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：正常；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：删除）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1573,12 +1359,238 @@
     <t>省市区/县 拼接地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IDCreator.getID()生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>mainFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> _blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>_self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>_top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否在菜单中显示（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：显示；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：不显示）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除标记（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：正常；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：删除）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1674,13 +1686,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -2015,7 +2020,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2081,9 +2086,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2166,18 +2168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2204,6 +2194,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2566,26 +2568,26 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -2683,38 +2685,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -2744,7 +2746,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_dict (</v>
       </c>
@@ -2766,16 +2768,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="40" t="str">
+        <v>152</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J16" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
@@ -2784,121 +2786,121 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>202</v>
+      <c r="B5" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G5" s="12">
         <v>128</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="40" t="str">
+      <c r="I5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>200</v>
+      <c r="B6" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G6" s="6">
         <v>128</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>171</v>
+      <c r="B7" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G7" s="6">
         <v>32</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G8" s="6">
         <v>128</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
@@ -2912,16 +2914,16 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2932,23 +2934,23 @@
         <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G10" s="6">
         <v>32</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="34">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2959,23 +2961,23 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G11" s="6">
         <v>32</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>9</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2986,21 +2988,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>10</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3011,23 +3013,23 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13" s="6">
         <v>32</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>11</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3038,21 +3040,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>12</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3063,33 +3065,33 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G15" s="6">
         <v>256</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>13</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="6">
@@ -3099,53 +3101,53 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J16" s="40" t="str">
+        <v>203</v>
+      </c>
+      <c r="J16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="24" t="str">
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="24" t="str">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="J19" s="24" t="str">
+      <c r="J19" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J20" s="24" t="str">
+      <c r="J20" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -3166,12 +3168,12 @@
       <c r="E21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="6">
@@ -3181,16 +3183,16 @@
         <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="F22" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" t="str">
         <f>F22</f>
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
@@ -3204,16 +3206,16 @@
         <v>93</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="F23" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_dict_label ON sys_dict (label ASC);</v>
@@ -3244,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3263,38 +3265,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -3324,7 +3326,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_area (</v>
       </c>
@@ -3334,9 +3336,9 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3346,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="40" t="str">
+        <v>257</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J14" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
@@ -3364,18 +3366,18 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>243</v>
+      <c r="B5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1">
         <v>64</v>
@@ -3383,23 +3385,23 @@
       <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="40" t="str">
+      <c r="I5" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(64) DEFAULT 1 COMMENT '地区名字',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>258</v>
+      <c r="B6" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>254</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="12" t="s">
@@ -3413,106 +3415,106 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J6" s="40" t="str">
+        <v>241</v>
+      </c>
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>level char(1) COMMENT '行政级别',</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>224</v>
+      <c r="B8" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G8" s="1">
         <v>32</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '操作IP地址',</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>249</v>
+      <c r="B9" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>245</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G9" s="1">
         <v>64</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>py varchar(64) COMMENT '地区名字拼英表示',</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4"/>
@@ -3527,157 +3529,157 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>sort int(4) COMMENT '序号',</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="34">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>262</v>
+      <c r="B11" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>258</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1">
         <v>256</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>full_name varchar(256) COMMENT '省市区/县 拼接地址',</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>9</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>253</v>
+      <c r="B12" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G12" s="1">
         <v>24</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>lat varchar(24) COMMENT '维度',</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>10</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>255</v>
+      <c r="B13" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13" s="1">
         <v>24</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>lng varchar(24) COMMENT '经度',</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>11</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="33"/>
+      <c r="B14" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>157</v>
+      <c r="F14" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="G14" s="1">
         <v>32</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>child_url varchar(32) COMMENT '',</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="24" t="str">
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (name)</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="24" t="str">
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="J17" s="24" t="str">
+      <c r="J17" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J18" s="24" t="str">
+      <c r="J18" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -3698,12 +3700,12 @@
       <c r="E19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="6">
@@ -3715,10 +3717,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20">
         <f>F20</f>
         <v>0</v>
@@ -3734,10 +3736,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
       <c r="J21">
         <f>F21</f>
         <v>0</v>
@@ -3787,38 +3789,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -3848,7 +3850,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_log (</v>
       </c>
@@ -3870,16 +3872,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="40" t="str">
+        <v>152</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J13" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
@@ -3888,18 +3890,18 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>223</v>
+      <c r="B5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
@@ -3907,19 +3909,19 @@
       <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="40" t="str">
+      <c r="I5" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3930,23 +3932,23 @@
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G6" s="6">
         <v>32</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3957,214 +3959,214 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>217</v>
+      <c r="B8" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G8" s="6">
         <v>128</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>218</v>
+      <c r="B9" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G9" s="6">
         <v>128</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>219</v>
+      <c r="B10" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G10" s="6">
         <v>256</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="34">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>220</v>
+      <c r="B11" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G11" s="6">
         <v>8</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>9</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>221</v>
+      <c r="B12" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>10</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>222</v>
+      <c r="B13" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>230</v>
+      <c r="F13" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="24" t="str">
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="24" t="str">
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
-      <c r="J16" s="24" t="str">
+      <c r="J16" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J17" s="24" t="str">
+      <c r="J17" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -4185,12 +4187,12 @@
       <c r="E18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="6">
@@ -4200,16 +4202,16 @@
         <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
+      <c r="F19" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
       <c r="J19" t="str">
         <f>F19</f>
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
@@ -4223,16 +4225,16 @@
         <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="F20" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
       <c r="J20" t="str">
         <f>F20</f>
         <v>CREATE INDEX sys_log_request_uri ON sys_log (request_uri ASC);</v>
@@ -4298,7 +4300,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4314,7 +4316,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4330,8 +4332,8 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>214</v>
+      <c r="B4" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -4346,8 +4348,8 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>161</v>
+      <c r="B5" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -4362,8 +4364,8 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>164</v>
+      <c r="B6" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
@@ -4378,8 +4380,8 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>167</v>
+      <c r="B7" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -4394,8 +4396,8 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>194</v>
+      <c r="B8" s="38" t="s">
+        <v>190</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
@@ -4410,8 +4412,8 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>215</v>
+      <c r="B9" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -4426,8 +4428,8 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>257</v>
+      <c r="B10" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
@@ -4442,8 +4444,8 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>216</v>
+      <c r="B11" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -4458,7 +4460,7 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4467,7 +4469,7 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4476,7 +4478,7 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4485,7 +4487,7 @@
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4494,7 +4496,7 @@
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4503,7 +4505,7 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4550,38 +4552,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="50"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="18" t="s">
@@ -4611,11 +4613,11 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_user (</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="13">
@@ -4643,11 +4645,11 @@
       <c r="I4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="40" t="str">
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J24" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="13">
@@ -4671,11 +4673,11 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="40" t="str">
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>company_id varchar(32) COMMENT '归属公司',</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="13">
@@ -4701,7 +4703,7 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
@@ -4730,7 +4732,7 @@
       <c r="I7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
@@ -4757,7 +4759,7 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
@@ -4786,7 +4788,7 @@
       <c r="I9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
@@ -4815,7 +4817,7 @@
       <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
@@ -4844,7 +4846,7 @@
       <c r="I11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
@@ -4871,7 +4873,7 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
@@ -4898,7 +4900,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
@@ -4929,7 +4931,7 @@
       <c r="I14" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
@@ -4958,7 +4960,7 @@
       <c r="I15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
@@ -4985,7 +4987,7 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
@@ -5005,12 +5007,12 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="40" t="str">
+      <c r="J17" s="39" t="str">
         <f t="shared" si="0"/>
         <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
@@ -5037,7 +5039,7 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="40" t="str">
+      <c r="J18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
@@ -5064,7 +5066,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="40" t="str">
+      <c r="J19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
@@ -5084,12 +5086,12 @@
         <v>99</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="40" t="str">
+      <c r="J20" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
@@ -5116,7 +5118,7 @@
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="40" t="str">
+      <c r="J21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
@@ -5136,12 +5138,12 @@
         <v>99</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="40" t="str">
+      <c r="J22" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
@@ -5168,7 +5170,7 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="40" t="str">
+      <c r="J23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
@@ -5199,35 +5201,35 @@
       <c r="I24" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="40" t="str">
+      <c r="J24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="J25" s="24" t="str">
+      <c r="J25" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="D26" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="J26" s="24" t="str">
+      <c r="D26" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="J26" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="J27" s="24" t="str">
+      <c r="J27" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J28" s="24" t="str">
+      <c r="J28" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -5248,12 +5250,12 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="13">
@@ -5266,15 +5268,15 @@
         <v>98</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
@@ -5291,15 +5293,15 @@
         <v>97</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J32" si="1">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
@@ -5316,15 +5318,15 @@
         <v>97</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
@@ -5332,16 +5334,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5376,38 +5378,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="50"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -5437,7 +5439,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_role (</v>
       </c>
@@ -5468,7 +5470,7 @@
       <c r="I4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="40" t="str">
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J17" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
@@ -5495,7 +5497,7 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="40" t="str">
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
@@ -5524,7 +5526,7 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
@@ -5551,7 +5553,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
@@ -5578,7 +5580,7 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
@@ -5607,7 +5609,7 @@
       <c r="I9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
@@ -5638,7 +5640,7 @@
       <c r="I10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
@@ -5669,7 +5671,7 @@
       <c r="I11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
@@ -5696,7 +5698,7 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
@@ -5716,12 +5718,12 @@
         <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
@@ -5748,7 +5750,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
@@ -5768,12 +5770,12 @@
         <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
@@ -5800,7 +5802,7 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
@@ -5820,42 +5822,42 @@
         <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="40" t="str">
+      <c r="J17" s="39" t="str">
         <f t="shared" si="0"/>
         <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="J18" s="24" t="str">
+      <c r="J18" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="D19" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="51"/>
-      <c r="J19" s="24" t="str">
+      <c r="D19" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="J19" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="J20" s="24" t="str">
+      <c r="J20" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J21" s="24" t="str">
+      <c r="J21" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -5876,12 +5878,12 @@
       <c r="E22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="13">
@@ -5894,15 +5896,15 @@
         <v>125</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
@@ -5932,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5951,38 +5953,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -6012,7 +6014,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_menu (</v>
       </c>
@@ -6021,16 +6023,16 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -6039,11 +6041,11 @@
       <c r="G4" s="13">
         <v>32</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="40" t="str">
+      <c r="H4" s="13"/>
+      <c r="I4" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J19" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
@@ -6052,15 +6054,15 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>118</v>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>85</v>
@@ -6068,9 +6070,9 @@
       <c r="G5" s="13">
         <v>32</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="40" t="str">
+      <c r="H5" s="13"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
@@ -6079,15 +6081,15 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>85</v>
@@ -6095,9 +6097,9 @@
       <c r="G6" s="13">
         <v>1024</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="40" t="str">
+      <c r="H6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
@@ -6106,15 +6108,15 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>85</v>
@@ -6122,11 +6124,11 @@
       <c r="G7" s="13">
         <v>128</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
@@ -6135,27 +6137,27 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="G8" s="13">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="40" t="str">
+      <c r="I8" s="14"/>
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
@@ -6164,25 +6166,25 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="13">
         <v>256</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="40" t="str">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
@@ -6191,27 +6193,27 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="13">
         <v>20</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="40" t="str">
+      <c r="H10" s="13"/>
+      <c r="I10" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>target varchar(20) COMMENT '目标',</v>
       </c>
@@ -6220,25 +6222,25 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="13">
         <v>128</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="40" t="str">
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>icon varchar(128) COMMENT '图标',</v>
       </c>
@@ -6247,27 +6249,27 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="1">
+        <v>86</v>
+      </c>
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="40" t="str">
+      <c r="H12" s="13"/>
+      <c r="I12" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
       </c>
@@ -6276,27 +6278,27 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="13">
         <v>128</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>permission varchar(128) COMMENT '权限标识',</v>
       </c>
@@ -6305,15 +6307,15 @@
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>85</v>
@@ -6321,11 +6323,11 @@
       <c r="G14" s="13">
         <v>32</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
@@ -6334,25 +6336,25 @@
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
@@ -6361,15 +6363,15 @@
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>85</v>
@@ -6377,11 +6379,11 @@
       <c r="G16" s="13">
         <v>32</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
@@ -6390,25 +6392,25 @@
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="40" t="str">
+      <c r="J17" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
@@ -6417,27 +6419,27 @@
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="13">
         <v>256</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="40" t="str">
+      <c r="J18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
@@ -6446,57 +6448,57 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>148</v>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="1">
+        <v>264</v>
+      </c>
+      <c r="G19" s="13">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="13">
         <v>0</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="40" t="str">
+      <c r="I19" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="J20" s="24" t="str">
+      <c r="J20" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="D21" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="J21" s="24" t="str">
+      <c r="D21" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="J21" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="J22" s="24" t="str">
+      <c r="J22" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J23" s="24" t="str">
+      <c r="J23" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -6517,12 +6519,12 @@
       <c r="E24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="13">
@@ -6532,18 +6534,18 @@
         <v>93</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
+      <c r="F25" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
       <c r="J25" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
@@ -6590,38 +6592,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -6651,7 +6653,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_user_role (</v>
       </c>
@@ -6661,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -6673,16 +6675,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="40" t="str">
+        <v>151</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -6704,60 +6706,60 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="40" t="str">
+        <v>152</v>
+      </c>
+      <c r="J5" s="39" t="str">
         <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="24" t="str">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="24" t="str">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">
-      <c r="J8" s="24" t="str">
+      <c r="J8" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J9" s="24" t="str">
+      <c r="J9" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -6778,12 +6780,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6826,38 +6828,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -6887,7 +6889,7 @@
       <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
@@ -6897,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -6909,16 +6911,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="40" t="str">
+        <v>152</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
@@ -6928,10 +6930,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -6940,44 +6942,44 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="40" t="str">
+        <v>162</v>
+      </c>
+      <c r="J5" s="39" t="str">
         <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="J6" s="24" t="str">
+      <c r="J6" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,menu_id)</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="D7" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="J7" s="24" t="str">
+      <c r="D7" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="J7" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">
-      <c r="J8" s="24" t="str">
+      <c r="J8" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J9" s="24" t="str">
+      <c r="J9" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -6998,16 +7000,16 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="J11" s="24"/>
+      <c r="J11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7051,38 +7053,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -7112,7 +7114,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_office (</v>
       </c>
@@ -7143,7 +7145,7 @@
       <c r="I4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="40" t="str">
+      <c r="J4" s="39" t="str">
         <f t="shared" ref="J4:J24" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
@@ -7170,7 +7172,7 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="40" t="str">
+      <c r="J5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
@@ -7199,7 +7201,7 @@
       <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
@@ -7226,7 +7228,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
@@ -7265,10 +7267,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
@@ -7282,9 +7284,9 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="40" t="str">
+        <v>182</v>
+      </c>
+      <c r="J9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
@@ -7294,10 +7296,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
@@ -7313,7 +7315,7 @@
       <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
@@ -7323,10 +7325,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
@@ -7340,9 +7342,9 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="40" t="str">
+        <v>183</v>
+      </c>
+      <c r="J11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
@@ -7352,10 +7354,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="13" t="s">
@@ -7369,9 +7371,9 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="40" t="str">
+        <v>185</v>
+      </c>
+      <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
@@ -7381,10 +7383,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
@@ -7398,7 +7400,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
@@ -7408,10 +7410,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
@@ -7425,7 +7427,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
@@ -7435,10 +7437,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
@@ -7452,7 +7454,7 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
@@ -7479,7 +7481,7 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
@@ -7489,10 +7491,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
@@ -7506,7 +7508,7 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="40" t="str">
+      <c r="J17" s="39" t="str">
         <f t="shared" si="0"/>
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
@@ -7533,7 +7535,7 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="40" t="str">
+      <c r="J18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
@@ -7560,7 +7562,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="40" t="str">
+      <c r="J19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
@@ -7580,12 +7582,12 @@
         <v>11</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="40" t="str">
+      <c r="J20" s="39" t="str">
         <f t="shared" si="0"/>
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
@@ -7594,13 +7596,13 @@
       <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
@@ -7610,9 +7612,9 @@
       <c r="G21" s="13">
         <v>32</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="40" t="str">
+      <c r="H21" s="26"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
@@ -7621,23 +7623,23 @@
       <c r="A22" s="13">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="40" t="str">
+      <c r="H22" s="30"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="39" t="str">
         <f t="shared" si="0"/>
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
@@ -7646,13 +7648,13 @@
       <c r="A23" s="13">
         <v>20</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="13" t="s">
         <v>2</v>
       </c>
@@ -7662,9 +7664,9 @@
       <c r="G23" s="13">
         <v>256</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="40" t="str">
+      <c r="H23" s="30"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
@@ -7673,66 +7675,66 @@
       <c r="A24" s="13">
         <v>21</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>1</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>0</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="40" t="str">
+      <c r="J24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24" t="str">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B11&amp;")"</f>
         <v>PRIMARY KEY (type)</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="D26" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="J26" s="24" t="str">
+      <c r="D26" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="J26" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="J27" s="24" t="str">
+      <c r="J27" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J28" s="24" t="str">
+      <c r="J28" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -7753,12 +7755,12 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A30" s="13">
@@ -7768,18 +7770,18 @@
         <v>93</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
+      <c r="F30" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
@@ -7793,18 +7795,18 @@
         <v>93</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
+      <c r="F31" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
@@ -7854,38 +7856,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="50" t="s">
-        <v>239</v>
+      <c r="B1" s="61"/>
+      <c r="C1" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="18" t="s">
@@ -7915,7 +7917,7 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_role_office (</v>
       </c>
@@ -7925,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -7937,16 +7939,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="40" t="str">
+        <v>152</v>
+      </c>
+      <c r="J4" s="39" t="str">
         <f>B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
@@ -7956,10 +7958,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -7968,60 +7970,60 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1">
         <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="40" t="str">
+        <v>194</v>
+      </c>
+      <c r="J5" s="39" t="str">
         <f>B5&amp;" "&amp;IF(F5&lt;&gt;"datetime",F5&amp;"("&amp;G5&amp;")",F5)&amp;IF(E5="N"," NOT NULL","")&amp;IF(H5&lt;&gt;""," DEFAULT "&amp;H5,IF(F5&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C5&amp;"',"</f>
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="24" t="str">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="24" t="str">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">
-      <c r="J8" s="24" t="str">
+      <c r="J8" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J9" s="24" t="str">
+      <c r="J9" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
@@ -8042,12 +8044,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/demo/db/rst-common_db schema v1.0.xlsx
+++ b/demo/db/rst-common_db schema v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1368,6 +1368,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1375,6 +1383,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>目标（</t>
     </r>
@@ -1382,8 +1391,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>mainFrame</t>
     </r>
@@ -1394,6 +1405,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -1401,8 +1413,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> _blank</t>
     </r>
@@ -1413,6 +1427,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -1420,8 +1435,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>_self</t>
     </r>
@@ -1432,6 +1449,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -1439,8 +1457,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>_parent</t>
     </r>
@@ -1451,6 +1471,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -1458,8 +1479,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>_top</t>
     </r>
@@ -1470,6 +1493,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
@@ -1483,6 +1507,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>是否在菜单中显示（</t>
     </r>
@@ -1490,8 +1515,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1502,6 +1529,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>：显示；</t>
     </r>
@@ -1509,8 +1537,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1521,17 +1551,10 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>：不显示）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1542,6 +1565,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>删除标记（</t>
     </r>
@@ -1549,8 +1573,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1561,6 +1587,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>：正常；</t>
     </r>
@@ -1568,8 +1595,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1580,6 +1609,7 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>：删除）</t>
     </r>
@@ -1589,8 +1619,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,6 +1718,69 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2020,7 +2113,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2168,6 +2261,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2195,18 +2300,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2230,6 +2323,81 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2256,7 +2424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2298,7 +2466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2330,9 +2498,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2364,6 +2550,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2539,23 +2743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2771,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2783,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1">
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -2589,7 +2793,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1">
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2601,7 +2805,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2633,25 +2837,25 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
@@ -2663,50 +2867,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>209</v>
       </c>
@@ -2716,9 +2920,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2751,7 +2955,7 @@
         <v>CREATE TABLE sys_dict (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2782,7 +2986,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2811,7 +3015,7 @@
         <v>value varchar(128) NOT NULL COMMENT '数据值',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -2838,7 +3042,7 @@
         <v>label varchar(128) NOT NULL COMMENT '标签名',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -2865,7 +3069,7 @@
         <v>type varchar(32) NOT NULL COMMENT '类型',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -2892,7 +3096,7 @@
         <v>description varchar(128) COMMENT '描述',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>6</v>
       </c>
@@ -2919,7 +3123,7 @@
         <v>sort int(8) NOT NULL COMMENT '排序（升序）',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -2946,7 +3150,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -2973,7 +3177,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -2998,7 +3202,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -3025,7 +3229,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -3050,7 +3254,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -3077,7 +3281,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -3108,7 +3312,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="44"/>
       <c r="C17" s="40"/>
@@ -3123,14 +3327,14 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="44"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="59"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="41"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
@@ -3140,19 +3344,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J20" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
@@ -3175,7 +3379,7 @@
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -3198,7 +3402,7 @@
         <v>CREATE INDEX sys_dict_value ON sys_dict (value ASC);</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1">
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3243,50 +3447,50 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>237</v>
       </c>
@@ -3296,9 +3500,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3331,7 +3535,7 @@
         <v>CREATE TABLE sys_area (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3362,7 +3566,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3393,7 +3597,7 @@
         <v>name varchar(64) DEFAULT 1 COMMENT '地区名字',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -3422,7 +3626,7 @@
         <v>level char(1) COMMENT '行政级别',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -3453,7 +3657,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -3480,7 +3684,7 @@
         <v>parent_id varchar(32) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>6</v>
       </c>
@@ -3507,7 +3711,7 @@
         <v>py varchar(64) COMMENT '地区名字拼英表示',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -3534,7 +3738,7 @@
         <v>sort int(4) COMMENT '序号',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -3561,7 +3765,7 @@
         <v>full_name varchar(256) COMMENT '省市区/县 拼接地址',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -3588,7 +3792,7 @@
         <v>lat varchar(24) COMMENT '维度',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -3615,7 +3819,7 @@
         <v>lng varchar(24) COMMENT '经度',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -3640,7 +3844,7 @@
         <v>child_url varchar(32) COMMENT '',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="44"/>
       <c r="C15" s="24"/>
@@ -3655,14 +3859,14 @@
         <v>PRIMARY KEY (name)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="44"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="59"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="45"/>
@@ -3672,19 +3876,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J17" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J18" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -3707,7 +3911,7 @@
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -3726,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -3767,50 +3971,50 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>233</v>
       </c>
@@ -3820,9 +4024,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -3855,7 +4059,7 @@
         <v>CREATE TABLE sys_log (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3886,7 +4090,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3917,7 +4121,7 @@
         <v>type char(1) DEFAULT 1 COMMENT '日志类型',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -3944,7 +4148,7 @@
         <v>create_by varchar(32) COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -3969,7 +4173,7 @@
         <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -3996,7 +4200,7 @@
         <v>remote_addr varchar(128) COMMENT '操作IP地址',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>6</v>
       </c>
@@ -4023,7 +4227,7 @@
         <v>user_agent varchar(128) COMMENT '用户代理',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -4050,7 +4254,7 @@
         <v>request_uri varchar(256) COMMENT '请求URI',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -4077,7 +4281,7 @@
         <v>method varchar(8) COMMENT '操作方式',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -4102,7 +4306,7 @@
         <v>params text() COMMENT '操作提交的数据',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -4127,7 +4331,7 @@
         <v>exception text() COMMENT '异常信息',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="44"/>
       <c r="C14" s="40"/>
@@ -4142,14 +4346,14 @@
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="44"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="41"/>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
@@ -4159,19 +4363,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -4194,7 +4398,7 @@
       <c r="H18" s="68"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -4217,7 +4421,7 @@
         <v>CREATE INDEX sys_log_create_by ON sys_log (create_by ASC);</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -4262,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4270,16 +4474,16 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -4296,7 +4500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4312,7 +4516,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4328,7 +4532,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4344,7 +4548,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4360,7 +4564,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4376,7 +4580,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4392,7 +4596,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4408,7 +4612,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4424,7 +4628,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4440,7 +4644,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4456,7 +4660,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4465,7 +4669,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4474,7 +4678,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4483,7 +4687,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4492,7 +4696,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4501,7 +4705,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4530,62 +4734,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="47.125" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" ht="30">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -4619,7 +4823,7 @@
       </c>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4651,7 +4855,7 @@
       </c>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4679,7 +4883,7 @@
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4708,7 +4912,7 @@
         <v>office_id varchar(32) COMMENT '归属部门',</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4737,7 +4941,7 @@
         <v>login_name varchar(32) NOT NULL COMMENT '登录账号',</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4764,7 +4968,7 @@
         <v>password varchar(64) NOT NULL COMMENT '密码',</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4793,7 +4997,7 @@
         <v>no varchar(32) COMMENT '工号',</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4822,7 +5026,7 @@
         <v>name varchar(32) COMMENT '姓名',</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4851,7 +5055,7 @@
         <v>email varchar(64) NOT NULL COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4878,7 +5082,7 @@
         <v>phone varchar(64) COMMENT '固定电话',</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4905,7 +5109,7 @@
         <v>mobile varchar(24) NOT NULL COMMENT '手机',</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4936,7 +5140,7 @@
         <v>user_type char(1) NOT NULL DEFAULT 0 COMMENT '用户类型',</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4965,7 +5169,7 @@
         <v>photo varchar(256) COMMENT '用户头像URL',</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4992,7 +5196,7 @@
         <v>login_ip varchar(24) COMMENT '最后登陆IP',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5017,7 +5221,7 @@
         <v>login_date datetime DEFAULT CURRENT_datetime COMMENT '最后登陆时间',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5044,7 +5248,7 @@
         <v>login_flag varchar(32) COMMENT '是否可登录',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5071,7 +5275,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5096,7 +5300,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5123,7 +5327,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5148,7 +5352,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5175,7 +5379,7 @@
         <v>remarks varchar(32) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5206,35 +5410,35 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '逻辑删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
-      <c r="D26" s="59" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="50"/>
       <c r="J26" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -5250,14 +5454,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="1:10" ht="15">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -5271,18 +5475,18 @@
         <v>148</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_user_login_name ON sys_user (login_name ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1">
+    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -5296,18 +5500,18 @@
         <v>148</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J32" si="1">F31</f>
         <v>CREATE INDEX sys_user_update_date ON sys_user (update_date ASC);</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>3</v>
       </c>
@@ -5321,12 +5525,12 @@
         <v>148</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>CREATE INDEX sys_user_del_flag ON sys_user (del_flag ASC);</v>
@@ -5334,16 +5538,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5356,62 +5560,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="51.75" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="51.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -5444,7 +5648,7 @@
         <v>CREATE TABLE sys_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5475,7 +5679,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5502,7 +5706,7 @@
         <v>office_id varchar(32) COMMENT '归属机构',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5531,7 +5735,7 @@
         <v>name varchar(64) COMMENT '角色名称',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5558,7 +5762,7 @@
         <v>enname varchar(128) COMMENT '英文名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5585,7 +5789,7 @@
         <v>role_type varchar(64) COMMENT '角色类型',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5614,7 +5818,7 @@
         <v>data_scope char(1) COMMENT '数据范围',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5645,7 +5849,7 @@
         <v>is_sys char(1) DEFAULT 0 COMMENT '是否系统数据',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5676,7 +5880,7 @@
         <v>useable char(1) DEFAULT 0 COMMENT '是否可用',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5703,7 +5907,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5728,7 +5932,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5755,7 +5959,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5780,7 +5984,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5807,7 +6011,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5834,35 +6038,35 @@
         <v>del_flag datetime DEFAULT CURRENT_datetime COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J18" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="D19" s="59" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="50"/>
       <c r="J19" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J21" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>27</v>
       </c>
@@ -5878,14 +6082,14 @@
       <c r="E22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -5899,12 +6103,12 @@
         <v>148</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" t="str">
         <f>F23</f>
         <v>CREATE INDEX sys_role_del_flag ON sys_role (del_flag ASC);</v>
@@ -5931,622 +6135,623 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="76" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" style="76" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="76" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="76" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" style="76" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="18" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="39" t="str">
+      <c r="J3" s="81" t="str">
         <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
         <v>CREATE TABLE sys_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="85">
         <v>32</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="85"/>
+      <c r="I4" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="J4" s="39" t="str">
+      <c r="J4" s="81" t="str">
         <f t="shared" ref="J4:J19" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="85">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="39" t="str">
+      <c r="H5" s="85"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="81" t="str">
         <f t="shared" si="0"/>
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="85">
         <v>1024</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="39" t="str">
+      <c r="H6" s="85"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="81" t="str">
         <f t="shared" si="0"/>
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="85">
         <v>128</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="39" t="str">
+      <c r="J7" s="81" t="str">
         <f t="shared" si="0"/>
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="82">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="85">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="85">
         <v>0</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="39" t="str">
+      <c r="I8" s="83"/>
+      <c r="J8" s="81" t="str">
         <f t="shared" si="0"/>
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="85"/>
+      <c r="E9" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="85">
         <v>256</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="39" t="str">
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="81" t="str">
         <f t="shared" si="0"/>
         <v>href varchar(256) NOT NULL COMMENT '链接',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="85">
         <v>20</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="85"/>
+      <c r="I10" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>target varchar(20) COMMENT '目标',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
+        <v>8</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="85">
+        <v>128</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>icon varchar(128) COMMENT '图标',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="82">
+        <v>8</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="85">
+        <v>1</v>
+      </c>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="82">
+        <v>8</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="85">
+        <v>128</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>permission varchar(128) COMMENT '权限标识',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="82">
+        <v>8</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="J10" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>target varchar(20) COMMENT '目标',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A11" s="1">
+      <c r="F14" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="85">
+        <v>32</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="82">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="B15" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="82">
+        <v>8</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="85">
+        <v>32</v>
+      </c>
+      <c r="H16" s="85"/>
+      <c r="I16" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="82">
+        <v>8</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="82">
+        <v>8</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F18" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="13">
-        <v>128</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>icon varchar(128) COMMENT '图标',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="1">
+      <c r="G18" s="85">
+        <v>256</v>
+      </c>
+      <c r="H18" s="85"/>
+      <c r="I18" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(256) COMMENT '备注信息',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="82">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="B19" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="85">
         <v>1</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>is_show char(1) COMMENT '是否在菜单中显示',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="13">
-        <v>128</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="s">
+      <c r="H19" s="85">
         <v>0</v>
       </c>
-      <c r="J13" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>permission varchar(128) COMMENT '权限标识',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="13">
-        <v>32</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="13">
-        <v>32</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="13">
-        <v>256</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>remarks varchar(256) COMMENT '备注信息',</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="J19" s="39" t="str">
+      <c r="J19" s="81" t="str">
         <f t="shared" si="0"/>
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
-      <c r="J20" s="23" t="str">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="87" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
         <v>PRIMARY KEY (id)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
-      <c r="D21" s="59" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="J21" s="23" t="str">
+      <c r="E21" s="88"/>
+      <c r="J21" s="87" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="J22" s="23" t="str">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="87" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J23" s="23" t="str">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="87" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="13">
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="85">
         <v>1</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="49" t="s">
+      <c r="E25" s="85"/>
+      <c r="F25" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" t="str">
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="76" t="str">
         <f>F25</f>
         <v>CREATE INDEX sys_menu_parent_id ON sys_menu (parent_id ASC);</v>
       </c>
@@ -6572,48 +6777,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>156</v>
       </c>
@@ -6623,9 +6828,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6658,7 +6863,7 @@
         <v>CREATE TABLE sys_user_role (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6689,7 +6894,7 @@
         <v>user_id varchar(32) NOT NULL COMMENT '用户编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6720,7 +6925,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色ID',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
@@ -6735,14 +6940,14 @@
         <v>PRIMARY KEY (user_id,role_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -6752,19 +6957,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -6780,12 +6985,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6807,49 +7012,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>159</v>
       </c>
@@ -6859,9 +7064,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -6894,7 +7099,7 @@
         <v>CREATE TABLE sys_role_menu (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6925,7 +7130,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6956,35 +7161,35 @@
         <v>menu_id varchar(32) NOT NULL COMMENT '菜单编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="23" t="str">
         <f>"PRIMARY KEY ("&amp;B4&amp;","&amp;B5&amp;")"</f>
         <v>PRIMARY KEY (role_id,menu_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="D7" s="59" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="50"/>
       <c r="J7" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -7000,15 +7205,15 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="23"/>
     </row>
   </sheetData>
@@ -7031,62 +7236,62 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.875" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7119,7 +7324,7 @@
         <v>CREATE TABLE sys_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -7150,7 +7355,7 @@
         <v>id varchar(32) NOT NULL COMMENT '编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -7177,7 +7382,7 @@
         <v>parent_id varchar(32) COMMENT '父级编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -7206,7 +7411,7 @@
         <v>parent_ids varchar(1024) COMMENT '所有父级编号',</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -7233,7 +7438,7 @@
         <v>name varchar(128) NOT NULL COMMENT '名称',</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -7262,7 +7467,7 @@
         <v>sort int(8) NOT NULL DEFAULT 0 COMMENT '排序',</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -7291,7 +7496,7 @@
         <v>area_id varchar(32) NOT NULL COMMENT '归属区域',</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -7320,7 +7525,7 @@
         <v>code varchar(32) COMMENT '区域编码',</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -7349,7 +7554,7 @@
         <v>type char(64) NOT NULL COMMENT '机构类型',</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -7378,7 +7583,7 @@
         <v>grade char(1) COMMENT '机构等级',</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -7405,7 +7610,7 @@
         <v>address varchar(256) COMMENT '联系地址',</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -7432,7 +7637,7 @@
         <v>zip_code varchar(8) NOT NULL COMMENT '邮政编码',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -7459,7 +7664,7 @@
         <v>master varchar(256) COMMENT '负责人',</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -7486,7 +7691,7 @@
         <v>phone varchar(24) COMMENT '电话',</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -7513,7 +7718,7 @@
         <v>fax varchar(24) COMMENT '传真',</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -7540,7 +7745,7 @@
         <v>email varchar(64) COMMENT '邮箱',</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -7567,7 +7772,7 @@
         <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -7592,7 +7797,7 @@
         <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -7619,7 +7824,7 @@
         <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -7644,7 +7849,7 @@
         <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -7671,7 +7876,7 @@
         <v>remarks varchar(256) COMMENT '备注信息',</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -7702,7 +7907,7 @@
         <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '删除标记',</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
@@ -7717,29 +7922,29 @@
         <v>PRIMARY KEY (type)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
-      <c r="D26" s="59" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="50"/>
       <c r="J26" s="23" t="str">
         <f>") ENGINE=InnoDB"</f>
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -7755,14 +7960,14 @@
       <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -7776,18 +7981,18 @@
         <v>148</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" t="str">
         <f>F30</f>
         <v>CREATE INDEX sys_office_type ON sys_office (type ASC);</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" customHeight="1">
+    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -7801,12 +8006,12 @@
         <v>148</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" t="str">
         <f>F31</f>
         <v>CREATE INDEX sys_office_del_flag ON sys_office (del_flag ASC);</v>
@@ -7834,50 +8039,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="62" t="s">
         <v>191</v>
       </c>
@@ -7887,9 +8092,9 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -7922,7 +8127,7 @@
         <v>CREATE TABLE sys_role_office (</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7953,7 +8158,7 @@
         <v>role_id varchar(32) NOT NULL COMMENT '角色编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7984,7 +8189,7 @@
         <v>office_id varchar(32) NOT NULL COMMENT '机构编号',</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
@@ -7999,14 +8204,14 @@
         <v>PRIMARY KEY (role_id,office_id)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -8016,19 +8221,19 @@
         <v>) ENGINE=InnoDB</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="23" t="str">
         <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
         <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="23" t="str">
         <f>"ROW_FORMAT=COMPACT;"</f>
         <v>ROW_FORMAT=COMPACT;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -8044,12 +8249,12 @@
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
